--- a/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
+++ b/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT134"/>
+  <dimension ref="A1:CA134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,47 +684,82 @@
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
+          <t>일출부터12시까지평균온도</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
           <t>적정습도누적시간</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>일출전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>일몰전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>적정온도변화폭(하위)</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>적정온도변화폭(상위)</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>야간평균온도</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>일몰일출적합증산(HD)누적시간</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>야간평균습도</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>시간당5도이상의변화수</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>주간평균습도</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>오후부터일몰까지평균습도</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>일출부터12시까지평균습도</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>주야간온도차이</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>주야간온도차8도이상인날수</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>주야간습도차이</t>
         </is>
       </c>
     </row>
@@ -919,31 +954,52 @@
         <v>21.06550239234456</v>
       </c>
       <c r="BL2" t="n">
+        <v>17.83673130193906</v>
+      </c>
+      <c r="BM2" t="n">
         <v>1.083333333333333</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>0.4100000000000001</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>1.289999999999999</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>16.74389984825502</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>8.233333333333333</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
+        <v>58.26931714719326</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>17</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>59.70562982005132</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>57.91433014354093</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>61.77559556786709</v>
+      </c>
+      <c r="BY2" t="n">
         <v>2.821575730151277</v>
       </c>
-      <c r="BT2" t="n">
-        <v>0</v>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1.436312672858058</v>
       </c>
     </row>
     <row r="3">
@@ -1137,31 +1193,52 @@
         <v>22.55653206650835</v>
       </c>
       <c r="BL3" t="n">
-        <v>0</v>
+        <v>19.25150568181818</v>
       </c>
       <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>1.810000000000002</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>17.02368740515946</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BS3" t="n">
         <v>7.15</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BT3" t="n">
+        <v>60.0042792109259</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>53.84484455958565</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>50.55565320665106</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>57.78801136363661</v>
+      </c>
+      <c r="BY3" t="n">
         <v>4.021429175151521</v>
       </c>
-      <c r="BT3" t="n">
-        <v>0</v>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>-6.159434651340248</v>
       </c>
     </row>
     <row r="4">
@@ -1355,31 +1432,52 @@
         <v>23.26230403800482</v>
       </c>
       <c r="BL4" t="n">
+        <v>19.29102493074792</v>
+      </c>
+      <c r="BM4" t="n">
         <v>1.016666666666667</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>1.289999999999999</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BP4" t="n">
         <v>-0.1999999999999993</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>17.1045827010623</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BS4" t="n">
         <v>6.3</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BT4" t="n">
+        <v>59.37051593323233</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>43</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>57.00254801536495</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>52.14377672209049</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>62.66055401662062</v>
+      </c>
+      <c r="BY4" t="n">
         <v>4.317939706108081</v>
       </c>
-      <c r="BT4" t="n">
-        <v>0</v>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>-2.367967917867382</v>
       </c>
     </row>
     <row r="5">
@@ -1573,31 +1671,52 @@
         <v>20.47904988123519</v>
       </c>
       <c r="BL5" t="n">
+        <v>19.90778393351803</v>
+      </c>
+      <c r="BM5" t="n">
         <v>2.566666666666667</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BN5" t="n">
         <v>1.5</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5" t="n">
         <v>1.6</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BQ5" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BR5" t="n">
         <v>16.27896813353573</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BS5" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BT5" t="n">
+        <v>65.96130500758736</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>57.00884763124213</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>54.55057007125907</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>59.85767313019419</v>
+      </c>
+      <c r="BY5" t="n">
         <v>3.928189356861317</v>
       </c>
-      <c r="BT5" t="n">
-        <v>0</v>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>-8.952457376345222</v>
       </c>
     </row>
     <row r="6">
@@ -1791,31 +1910,52 @@
         <v>22.79743467933502</v>
       </c>
       <c r="BL6" t="n">
+        <v>19.73997229916898</v>
+      </c>
+      <c r="BM6" t="n">
         <v>10.31666666666667</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BN6" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6" t="n">
         <v>1.789999999999999</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BP6" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>16.36254931714726</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BS6" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BT6" t="n">
+        <v>63.87517450682889</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>27</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>57.63847631241993</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>51.8019952494064</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>64.44379501385055</v>
+      </c>
+      <c r="BY6" t="n">
         <v>5.015491655964276</v>
       </c>
-      <c r="BT6" t="n">
-        <v>0</v>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>-6.236698194408959</v>
       </c>
     </row>
     <row r="7">
@@ -2009,31 +2149,52 @@
         <v>17.31313397129188</v>
       </c>
       <c r="BL7" t="n">
+        <v>16.81191135734075</v>
+      </c>
+      <c r="BM7" t="n">
         <v>19.65</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BN7" t="n">
         <v>1.500000000000002</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BO7" t="n">
         <v>1.59</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BP7" t="n">
         <v>-0.8100000000000005</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7" t="n">
         <v>-6.210000000000001</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BR7" t="n">
         <v>16.21591805766319</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BS7" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BT7" t="n">
+        <v>70.40626707132024</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>68.71379177377914</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>69.20495215310993</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>68.14725761772841</v>
+      </c>
+      <c r="BY7" t="n">
         <v>0.8626166467071066</v>
       </c>
-      <c r="BT7" t="n">
-        <v>0</v>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>-1.692475297541108</v>
       </c>
     </row>
     <row r="8">
@@ -2227,31 +2388,52 @@
         <v>20.48028571428575</v>
       </c>
       <c r="BL8" t="n">
+        <v>18.23402777777779</v>
+      </c>
+      <c r="BM8" t="n">
         <v>16.06666666666667</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BN8" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BO8" t="n">
         <v>1.51</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BP8" t="n">
         <v>-0.6099999999999994</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BQ8" t="n">
         <v>-0.2100000000000009</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BR8" t="n">
         <v>16.46552352048565</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BS8" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BT8" t="n">
+        <v>68.21764795144166</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>112</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>63.22005134788205</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>59.89897619047631</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>67.08872222222239</v>
+      </c>
+      <c r="BY8" t="n">
         <v>2.977313449989428</v>
       </c>
-      <c r="BT8" t="n">
-        <v>0</v>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>-4.997596603559614</v>
       </c>
     </row>
     <row r="9">
@@ -2445,31 +2627,52 @@
         <v>21.1127553444181</v>
       </c>
       <c r="BL9" t="n">
+        <v>18.14138504155125</v>
+      </c>
+      <c r="BM9" t="n">
         <v>13.48333333333333</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BN9" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BO9" t="n">
         <v>1.81</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BP9" t="n">
         <v>-0.3100000000000005</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BQ9" t="n">
         <v>-0.7100000000000009</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BR9" t="n">
         <v>16.51936267071334</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BS9" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BT9" t="n">
+        <v>63.45248861911993</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>73</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>63.39290653008963</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>57.98612826603335</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>69.69224376731303</v>
+      </c>
+      <c r="BY9" t="n">
         <v>3.217154614818142</v>
       </c>
-      <c r="BT9" t="n">
-        <v>0</v>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>-0.05958208903029316</v>
       </c>
     </row>
     <row r="10">
@@ -2663,31 +2866,52 @@
         <v>21.61204275534449</v>
       </c>
       <c r="BL10" t="n">
+        <v>19.07401662049862</v>
+      </c>
+      <c r="BM10" t="n">
         <v>1.416666666666667</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BN10" t="n">
         <v>0.3099999999999987</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BO10" t="n">
         <v>1.689999999999998</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BP10" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BQ10" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BR10" t="n">
         <v>16.45880121396061</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BS10" t="n">
         <v>9.633333333333333</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BT10" t="n">
+        <v>59.51429438543276</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>24</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>57.49553137003835</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>52.64821852731613</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>63.1449030470915</v>
+      </c>
+      <c r="BY10" t="n">
         <v>3.973977275156077</v>
       </c>
-      <c r="BT10" t="n">
-        <v>0</v>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>-2.018763015394406</v>
       </c>
     </row>
     <row r="11">
@@ -2881,31 +3105,52 @@
         <v>23.25123515439439</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>18.91290858725762</v>
       </c>
       <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BO11" t="n">
         <v>1.710000000000001</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BP11" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BQ11" t="n">
         <v>1</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BR11" t="n">
         <v>16.77650986342955</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BS11" t="n">
         <v>8.483333333333333</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BT11" t="n">
+        <v>59.53778452200325</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>39</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>54.69213828425111</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>49.83251781472707</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>60.34977839335205</v>
+      </c>
+      <c r="BY11" t="n">
         <v>4.465269906096864</v>
       </c>
-      <c r="BT11" t="n">
-        <v>0</v>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>-4.845646237752142</v>
       </c>
     </row>
     <row r="12">
@@ -3099,31 +3344,52 @@
         <v>22.04935866983378</v>
       </c>
       <c r="BL12" t="n">
+        <v>17.86088642659279</v>
+      </c>
+      <c r="BM12" t="n">
         <v>1.883333333333333</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BN12" t="n">
         <v>1.190000000000001</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BO12" t="n">
         <v>1.700000000000001</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BP12" t="n">
         <v>-0.3100000000000005</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BQ12" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BR12" t="n">
         <v>16.49874051593332</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BS12" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BT12" t="n">
+        <v>63.81045523520495</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>28</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>56.55749039692707</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>51.90064133016654</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>61.9931301939059</v>
+      </c>
+      <c r="BY12" t="n">
         <v>3.611195463580227</v>
       </c>
-      <c r="BT12" t="n">
-        <v>0</v>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>-7.252964838277883</v>
       </c>
     </row>
     <row r="13">
@@ -3317,31 +3583,52 @@
         <v>20.26788598574828</v>
       </c>
       <c r="BL13" t="n">
+        <v>18.16265927977842</v>
+      </c>
+      <c r="BM13" t="n">
         <v>7.816666666666666</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BN13" t="n">
         <v>1.309999999999999</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BO13" t="n">
         <v>1.6</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BP13" t="n">
         <v>-0.4000000000000004</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BQ13" t="n">
         <v>1.789999999999999</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BR13" t="n">
         <v>16.69880121396066</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="BS13" t="n">
         <v>10.36666666666667</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BT13" t="n">
+        <v>62.70298937784523</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>33</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>60.26906530089637</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>55.61622327790982</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>65.69889196675896</v>
+      </c>
+      <c r="BY13" t="n">
         <v>2.587882524835884</v>
       </c>
-      <c r="BT13" t="n">
-        <v>0</v>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>-2.433924076948863</v>
       </c>
     </row>
     <row r="14">
@@ -3535,31 +3822,52 @@
         <v>21.23883610451317</v>
       </c>
       <c r="BL14" t="n">
+        <v>18.80313019390583</v>
+      </c>
+      <c r="BM14" t="n">
         <v>0.1166666666666667</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BN14" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BO14" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="BO14" t="n">
-        <v>0</v>
-      </c>
       <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
         <v>-1.5</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BR14" t="n">
         <v>16.70669195751147</v>
       </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
       <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>54.39089529590306</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>51.51076824583895</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>46.23646080760118</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>57.65390581717474</v>
+      </c>
+      <c r="BY14" t="n">
         <v>3.40238614748224</v>
       </c>
-      <c r="BT14" t="n">
-        <v>0</v>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>-2.880127050064111</v>
       </c>
     </row>
     <row r="15">
@@ -3753,31 +4061,52 @@
         <v>22.10674584323045</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>18.80404432132964</v>
       </c>
       <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="BO15" t="n">
         <v>1.109999999999999</v>
       </c>
-      <c r="BO15" t="n">
-        <v>0</v>
-      </c>
       <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BR15" t="n">
         <v>16.77288315629755</v>
       </c>
-      <c r="BR15" t="n">
-        <v>0</v>
-      </c>
       <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>53.13367223065302</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>49.65594110115259</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>46.0439429928743</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>53.86562326869829</v>
+      </c>
+      <c r="BY15" t="n">
         <v>3.802917099784498</v>
       </c>
-      <c r="BT15" t="n">
-        <v>0</v>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>-3.477731129500427</v>
       </c>
     </row>
     <row r="16">
@@ -3971,31 +4300,52 @@
         <v>20.90852731591453</v>
       </c>
       <c r="BL16" t="n">
-        <v>0</v>
+        <v>19.14518005540165</v>
       </c>
       <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
         <v>0.4100000000000001</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="BO16" t="n">
         <v>1.5</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="BP16" t="n">
         <v>-0.1999999999999993</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="BQ16" t="n">
         <v>-0.2100000000000009</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BR16" t="n">
         <v>16.82332321699554</v>
       </c>
-      <c r="BR16" t="n">
-        <v>0</v>
-      </c>
       <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>53.35634294385441</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>31</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>49.38934699103739</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>45.91332541567709</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>53.42842105263177</v>
+      </c>
+      <c r="BY16" t="n">
         <v>3.264000726666566</v>
       </c>
-      <c r="BT16" t="n">
-        <v>0</v>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>-3.966995952817015</v>
       </c>
     </row>
     <row r="17">
@@ -4189,31 +4539,52 @@
         <v>21.90845605700717</v>
       </c>
       <c r="BL17" t="n">
-        <v>0</v>
+        <v>19.51249307479225</v>
       </c>
       <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
         <v>0.1900000000000013</v>
       </c>
-      <c r="BN17" t="n">
+      <c r="BO17" t="n">
         <v>2</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="BP17" t="n">
         <v>-3</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="BQ17" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="BR17" t="n">
         <v>16.14433990895308</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BS17" t="n">
         <v>2.533333333333333</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="BT17" t="n">
+        <v>52.08124430956022</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>44</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>47.51288092189528</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>42.83646080760109</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>52.95875346260408</v>
+      </c>
+      <c r="BY17" t="n">
         <v>4.650500039830693</v>
       </c>
-      <c r="BT17" t="n">
-        <v>0</v>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>-4.568363387664938</v>
       </c>
     </row>
     <row r="18">
@@ -4407,31 +4778,52 @@
         <v>23.00845605700718</v>
       </c>
       <c r="BL18" t="n">
-        <v>0</v>
+        <v>19.61728531855955</v>
       </c>
       <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="BN18" t="n">
+      <c r="BO18" t="n">
         <v>1.289999999999999</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BP18" t="n">
         <v>-0.6999999999999993</v>
       </c>
-      <c r="BP18" t="n">
+      <c r="BQ18" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BR18" t="n">
         <v>15.96821917808223</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BS18" t="n">
         <v>9.783333333333333</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BT18" t="n">
+        <v>57.56942161339447</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>113</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>48.77491677336776</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>45.3742992874111</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>52.7283102493077</v>
+      </c>
+      <c r="BY18" t="n">
         <v>5.468541385298156</v>
       </c>
-      <c r="BT18" t="n">
-        <v>0</v>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>-8.794504840026718</v>
       </c>
     </row>
     <row r="19">
@@ -4625,31 +5017,52 @@
         <v>21.02251781472687</v>
       </c>
       <c r="BL19" t="n">
-        <v>0</v>
+        <v>19.43797783933519</v>
       </c>
       <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
         <v>1</v>
       </c>
-      <c r="BN19" t="n">
+      <c r="BO19" t="n">
         <v>1.109999999999999</v>
       </c>
-      <c r="BO19" t="n">
+      <c r="BP19" t="n">
         <v>-0.6099999999999994</v>
       </c>
-      <c r="BP19" t="n">
+      <c r="BQ19" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ19" t="n">
+      <c r="BR19" t="n">
         <v>16.58746585735978</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BS19" t="n">
         <v>2.633333333333333</v>
       </c>
-      <c r="BS19" t="n">
+      <c r="BT19" t="n">
+        <v>55.73830045523536</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>57</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>51.59948783610769</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>47.57045130641351</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>56.28736842105285</v>
+      </c>
+      <c r="BY19" t="n">
         <v>3.696400980028304</v>
       </c>
-      <c r="BT19" t="n">
-        <v>0</v>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>-4.13881261912767</v>
       </c>
     </row>
     <row r="20">
@@ -4843,31 +5256,52 @@
         <v>21.69534441805231</v>
       </c>
       <c r="BL20" t="n">
-        <v>0</v>
+        <v>19.35689750692519</v>
       </c>
       <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
         <v>1.09</v>
       </c>
-      <c r="BN20" t="n">
+      <c r="BO20" t="n">
         <v>1.300000000000001</v>
       </c>
-      <c r="BO20" t="n">
+      <c r="BP20" t="n">
         <v>-0.1999999999999993</v>
       </c>
-      <c r="BP20" t="n">
+      <c r="BQ20" t="n">
         <v>-0.2100000000000009</v>
       </c>
-      <c r="BQ20" t="n">
+      <c r="BR20" t="n">
         <v>16.73569044006084</v>
       </c>
-      <c r="BR20" t="n">
-        <v>0</v>
-      </c>
       <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>53.37673748103241</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>37</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>48.7424071702947</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>43.67494061757734</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>54.64947368421077</v>
+      </c>
+      <c r="BY20" t="n">
         <v>3.874271147647356</v>
       </c>
-      <c r="BT20" t="n">
-        <v>0</v>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>-4.634330310737717</v>
       </c>
     </row>
     <row r="21">
@@ -5061,31 +5495,52 @@
         <v>21.9535391923991</v>
       </c>
       <c r="BL21" t="n">
-        <v>0</v>
+        <v>19.77972299168975</v>
       </c>
       <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="BN21" t="n">
+      <c r="BO21" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BP21" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BP21" t="n">
+      <c r="BQ21" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="BQ21" t="n">
+      <c r="BR21" t="n">
         <v>16.21321699544772</v>
       </c>
-      <c r="BR21" t="n">
+      <c r="BS21" t="n">
         <v>4.316666666666666</v>
       </c>
-      <c r="BS21" t="n">
+      <c r="BT21" t="n">
+        <v>56.1550834597878</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>106</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>49.52201024327808</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>45.93631828978639</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>53.69252077562348</v>
+      </c>
+      <c r="BY21" t="n">
         <v>4.729062133873818</v>
       </c>
-      <c r="BT21" t="n">
-        <v>0</v>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>-6.633073216509722</v>
       </c>
     </row>
     <row r="22">
@@ -5279,31 +5734,52 @@
         <v>20.12477434679339</v>
       </c>
       <c r="BL22" t="n">
+        <v>19.1307756232687</v>
+      </c>
+      <c r="BM22" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BN22" t="n">
         <v>1.01</v>
       </c>
-      <c r="BN22" t="n">
+      <c r="BO22" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="BO22" t="n">
+      <c r="BP22" t="n">
         <v>-0.6999999999999993</v>
       </c>
-      <c r="BP22" t="n">
+      <c r="BQ22" t="n">
         <v>-0.3999999999999986</v>
       </c>
-      <c r="BQ22" t="n">
+      <c r="BR22" t="n">
         <v>16.26136570561468</v>
       </c>
-      <c r="BR22" t="n">
+      <c r="BS22" t="n">
         <v>7.466666666666667</v>
       </c>
-      <c r="BS22" t="n">
+      <c r="BT22" t="n">
+        <v>58.55538694992446</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>56.4475544174136</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>56.08327790973891</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>56.85614958448779</v>
+      </c>
+      <c r="BY22" t="n">
         <v>3.397712399379035</v>
       </c>
-      <c r="BT22" t="n">
-        <v>0</v>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>-2.107832532510862</v>
       </c>
     </row>
     <row r="23">
@@ -5497,31 +5973,52 @@
         <v>22.13068883610458</v>
       </c>
       <c r="BL23" t="n">
-        <v>0</v>
+        <v>20.12800554016623</v>
       </c>
       <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="BN23" t="n">
+      <c r="BO23" t="n">
         <v>1.6</v>
       </c>
-      <c r="BO23" t="n">
+      <c r="BP23" t="n">
         <v>-0.4000000000000004</v>
       </c>
-      <c r="BP23" t="n">
+      <c r="BQ23" t="n">
         <v>0.7899999999999991</v>
       </c>
-      <c r="BQ23" t="n">
+      <c r="BR23" t="n">
         <v>16.65068285280745</v>
       </c>
-      <c r="BR23" t="n">
+      <c r="BS23" t="n">
         <v>0.01666666666666667</v>
       </c>
-      <c r="BS23" t="n">
+      <c r="BT23" t="n">
+        <v>53.91963581183634</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>68</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>47.33537772087093</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>40.65118764845614</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>55.11822714681463</v>
+      </c>
+      <c r="BY23" t="n">
         <v>4.549496404555008</v>
       </c>
-      <c r="BT23" t="n">
-        <v>0</v>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>-6.584258090965406</v>
       </c>
     </row>
     <row r="24">
@@ -5715,31 +6212,52 @@
         <v>23.37327790973881</v>
       </c>
       <c r="BL24" t="n">
-        <v>0</v>
+        <v>19.92116343490306</v>
       </c>
       <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
         <v>0.3099999999999987</v>
       </c>
-      <c r="BN24" t="n">
+      <c r="BO24" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="BO24" t="n">
+      <c r="BP24" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BP24" t="n">
+      <c r="BQ24" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BQ24" t="n">
+      <c r="BR24" t="n">
         <v>16.19253414264042</v>
       </c>
-      <c r="BR24" t="n">
+      <c r="BS24" t="n">
         <v>5.983333333333333</v>
       </c>
-      <c r="BS24" t="n">
+      <c r="BT24" t="n">
+        <v>56.73553869499261</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>104</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>48.63681177976979</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>43.77330166270798</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>54.29692520775642</v>
+      </c>
+      <c r="BY24" t="n">
         <v>5.579937048140746</v>
       </c>
-      <c r="BT24" t="n">
-        <v>0</v>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>-8.098726915222812</v>
       </c>
     </row>
     <row r="25">
@@ -5933,31 +6451,52 @@
         <v>22.7898099762471</v>
       </c>
       <c r="BL25" t="n">
-        <v>0</v>
+        <v>19.54745152354569</v>
       </c>
       <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
         <v>1.01</v>
       </c>
-      <c r="BN25" t="n">
+      <c r="BO25" t="n">
         <v>1.4</v>
       </c>
-      <c r="BO25" t="n">
+      <c r="BP25" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BP25" t="n">
+      <c r="BQ25" t="n">
         <v>0.7899999999999991</v>
       </c>
-      <c r="BQ25" t="n">
+      <c r="BR25" t="n">
         <v>16.12866464339919</v>
       </c>
-      <c r="BR25" t="n">
-        <v>0</v>
-      </c>
       <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>52.24798179059214</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>111</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>49.30636363636381</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>43.71092636579588</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>55.82149584487559</v>
+      </c>
+      <c r="BY25" t="n">
         <v>5.159875689507487</v>
       </c>
-      <c r="BT25" t="n">
-        <v>0</v>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>-2.941618154228323</v>
       </c>
     </row>
     <row r="26">
@@ -6151,31 +6690,52 @@
         <v>24.08204275534451</v>
       </c>
       <c r="BL26" t="n">
-        <v>0</v>
+        <v>18.99728531855956</v>
       </c>
       <c r="BM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN26" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN26" t="n">
+      <c r="BO26" t="n">
         <v>2</v>
       </c>
-      <c r="BO26" t="n">
+      <c r="BP26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BP26" t="n">
+      <c r="BQ26" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BQ26" t="n">
+      <c r="BR26" t="n">
         <v>16.23600910470411</v>
       </c>
-      <c r="BR26" t="n">
-        <v>0</v>
-      </c>
       <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>51.33550834597887</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>85</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>46.20685019206179</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>41.08904988123529</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>52.15861495844895</v>
+      </c>
+      <c r="BY26" t="n">
         <v>5.493004979803008</v>
       </c>
-      <c r="BT26" t="n">
-        <v>0</v>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>-5.12865815391708</v>
       </c>
     </row>
     <row r="27">
@@ -6369,31 +6929,52 @@
         <v>22.93757719714973</v>
       </c>
       <c r="BL27" t="n">
-        <v>0</v>
+        <v>19.36047091412743</v>
       </c>
       <c r="BM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN27" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="BN27" t="n">
+      <c r="BO27" t="n">
         <v>1.19</v>
       </c>
-      <c r="BO27" t="n">
+      <c r="BP27" t="n">
         <v>-0.4000000000000004</v>
       </c>
-      <c r="BP27" t="n">
+      <c r="BQ27" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BQ27" t="n">
+      <c r="BR27" t="n">
         <v>16.16253048780498</v>
       </c>
-      <c r="BR27" t="n">
-        <v>0</v>
-      </c>
       <c r="BS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>51.01024390243937</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>109</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>46.41965428937289</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>41.62004750593838</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>52.00637119113595</v>
+      </c>
+      <c r="BY27" t="n">
         <v>5.116278731145229</v>
       </c>
-      <c r="BT27" t="n">
-        <v>0</v>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>-4.590589613066484</v>
       </c>
     </row>
     <row r="28">
@@ -6587,31 +7168,52 @@
         <v>23.15230403800481</v>
       </c>
       <c r="BL28" t="n">
-        <v>0</v>
+        <v>19.75465373961218</v>
       </c>
       <c r="BM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN28" t="n">
         <v>0.7899999999999991</v>
       </c>
-      <c r="BN28" t="n">
+      <c r="BO28" t="n">
         <v>1.4</v>
       </c>
-      <c r="BO28" t="n">
+      <c r="BP28" t="n">
         <v>-0.4000000000000004</v>
       </c>
-      <c r="BP28" t="n">
+      <c r="BQ28" t="n">
         <v>1.289999999999999</v>
       </c>
-      <c r="BQ28" t="n">
+      <c r="BR28" t="n">
         <v>16.1035660091048</v>
       </c>
-      <c r="BR28" t="n">
-        <v>0</v>
-      </c>
       <c r="BS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>51.78878603945398</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>101</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>44.79143405889918</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>40.34771971496449</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>49.96207756232702</v>
+      </c>
+      <c r="BY28" t="n">
         <v>5.472951276426684</v>
       </c>
-      <c r="BT28" t="n">
-        <v>0</v>
+      <c r="BZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>-6.997351980554804</v>
       </c>
     </row>
     <row r="29">
@@ -6805,31 +7407,52 @@
         <v>22.59657957244664</v>
       </c>
       <c r="BL29" t="n">
-        <v>0</v>
+        <v>19.50434540389973</v>
       </c>
       <c r="BM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN29" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="BN29" t="n">
+      <c r="BO29" t="n">
         <v>1.9</v>
       </c>
-      <c r="BO29" t="n">
+      <c r="BP29" t="n">
         <v>-0.4000000000000004</v>
       </c>
-      <c r="BP29" t="n">
+      <c r="BQ29" t="n">
         <v>1</v>
       </c>
-      <c r="BQ29" t="n">
+      <c r="BR29" t="n">
         <v>16.09274658573605</v>
       </c>
-      <c r="BR29" t="n">
-        <v>0</v>
-      </c>
       <c r="BS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>51.53693474962104</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>89</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>44.57118100128396</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>39.79800475059395</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>50.15289693593331</v>
+      </c>
+      <c r="BY29" t="n">
         <v>5.075700140836577</v>
       </c>
-      <c r="BT29" t="n">
-        <v>0</v>
+      <c r="BZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>-6.965753748337079</v>
       </c>
     </row>
     <row r="30">
@@ -7023,31 +7646,52 @@
         <v>22.06926253687318</v>
       </c>
       <c r="BL30" t="n">
-        <v>0</v>
+        <v>19.00191135734072</v>
       </c>
       <c r="BM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN30" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN30" t="n">
+      <c r="BO30" t="n">
         <v>1.863333333333334</v>
       </c>
-      <c r="BO30" t="n">
+      <c r="BP30" t="n">
         <v>-1.9</v>
       </c>
-      <c r="BP30" t="n">
+      <c r="BQ30" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="BQ30" t="n">
+      <c r="BR30" t="n">
         <v>14.76580645161291</v>
       </c>
-      <c r="BR30" t="n">
+      <c r="BS30" t="n">
         <v>0.45</v>
       </c>
-      <c r="BS30" t="n">
+      <c r="BT30" t="n">
+        <v>56.21161290322582</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>86</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>46.20656652360553</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>40.85120943952811</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>51.21531855955695</v>
+      </c>
+      <c r="BY30" t="n">
         <v>5.714122017628949</v>
       </c>
-      <c r="BT30" t="n">
-        <v>0</v>
+      <c r="BZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>-10.00504637962029</v>
       </c>
     </row>
     <row r="31">
@@ -7241,31 +7885,52 @@
         <v>17.99774193548387</v>
       </c>
       <c r="BL31" t="n">
+        <v>18.01841025641023</v>
+      </c>
+      <c r="BM31" t="n">
         <v>2.266666666666667</v>
       </c>
-      <c r="BM31" t="n">
+      <c r="BN31" t="n">
         <v>1.05</v>
       </c>
-      <c r="BN31" t="n">
+      <c r="BO31" t="n">
         <v>1.826666666666667</v>
       </c>
-      <c r="BO31" t="n">
+      <c r="BP31" t="n">
         <v>-2.609999999999999</v>
       </c>
-      <c r="BP31" t="n">
+      <c r="BQ31" t="n">
         <v>-1.609999999999999</v>
       </c>
-      <c r="BQ31" t="n">
+      <c r="BR31" t="n">
         <v>14.825</v>
       </c>
-      <c r="BR31" t="n">
+      <c r="BS31" t="n">
         <v>0.6333333333333333</v>
       </c>
-      <c r="BS31" t="n">
+      <c r="BT31" t="n">
+        <v>61.35684210526318</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>108</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>51.00439252336481</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>43.66782991202351</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>63.76317948717955</v>
+      </c>
+      <c r="BY31" t="n">
         <v>3.16961682242996</v>
       </c>
-      <c r="BT31" t="n">
-        <v>0</v>
+      <c r="BZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>-10.35244958189837</v>
       </c>
     </row>
     <row r="32">
@@ -7459,31 +8124,52 @@
         <v>16.76086330935254</v>
       </c>
       <c r="BL32" t="n">
+        <v>18.43419540229883</v>
+      </c>
+      <c r="BM32" t="n">
         <v>3.716666666666667</v>
       </c>
-      <c r="BM32" t="n">
+      <c r="BN32" t="n">
         <v>1.6</v>
       </c>
-      <c r="BN32" t="n">
+      <c r="BO32" t="n">
         <v>1.790000000000001</v>
       </c>
-      <c r="BO32" t="n">
+      <c r="BP32" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP32" t="n">
+      <c r="BQ32" t="n">
         <v>-3</v>
       </c>
-      <c r="BQ32" t="n">
+      <c r="BR32" t="n">
         <v>14.75275290215592</v>
       </c>
-      <c r="BR32" t="n">
+      <c r="BS32" t="n">
         <v>9.933333333333334</v>
       </c>
-      <c r="BS32" t="n">
+      <c r="BT32" t="n">
+        <v>58.36520729684941</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>46</v>
+      </c>
+      <c r="BV32" t="n">
+        <v>52.10881355932229</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>47.65407673860918</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>62.76637931034483</v>
+      </c>
+      <c r="BY32" t="n">
         <v>2.496958962250863</v>
       </c>
-      <c r="BT32" t="n">
-        <v>0</v>
+      <c r="BZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>-6.256393737527119</v>
       </c>
     </row>
     <row r="33">
@@ -7677,31 +8363,52 @@
         <v>18.32626237623765</v>
       </c>
       <c r="BL33" t="n">
+        <v>17.85714681440444</v>
+      </c>
+      <c r="BM33" t="n">
         <v>3.033333333333333</v>
       </c>
-      <c r="BM33" t="n">
+      <c r="BN33" t="n">
         <v>1.5</v>
       </c>
-      <c r="BN33" t="n">
+      <c r="BO33" t="n">
         <v>1.81</v>
       </c>
-      <c r="BO33" t="n">
+      <c r="BP33" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP33" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR33" t="n">
         <v>14.70650741350909</v>
       </c>
-      <c r="BR33" t="n">
+      <c r="BS33" t="n">
         <v>10.11666666666667</v>
       </c>
-      <c r="BS33" t="n">
+      <c r="BT33" t="n">
+        <v>60.83476112026379</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>324</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>54.8895418848171</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>54.43492574257432</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>55.38362880886442</v>
+      </c>
+      <c r="BY33" t="n">
         <v>3.392249130993591</v>
       </c>
-      <c r="BT33" t="n">
-        <v>0</v>
+      <c r="BZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>-5.945219235446693</v>
       </c>
     </row>
     <row r="34">
@@ -7895,31 +8602,52 @@
         <v>17.47797029702974</v>
       </c>
       <c r="BL34" t="n">
+        <v>17.69479108635099</v>
+      </c>
+      <c r="BM34" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="BM34" t="n">
+      <c r="BN34" t="n">
         <v>1.6</v>
       </c>
-      <c r="BN34" t="n">
+      <c r="BO34" t="n">
         <v>1.799999999999999</v>
       </c>
-      <c r="BO34" t="n">
+      <c r="BP34" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP34" t="n">
+      <c r="BQ34" t="n">
         <v>-0.7100000000000009</v>
       </c>
-      <c r="BQ34" t="n">
+      <c r="BR34" t="n">
         <v>14.72546178343951</v>
       </c>
-      <c r="BR34" t="n">
+      <c r="BS34" t="n">
         <v>10.46666666666667</v>
       </c>
-      <c r="BS34" t="n">
+      <c r="BT34" t="n">
+        <v>62.9113694267517</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>291</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>58.00093175853049</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>59.8229702970298</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>55.91206128133723</v>
+      </c>
+      <c r="BY34" t="n">
         <v>2.845719318922736</v>
       </c>
-      <c r="BT34" t="n">
-        <v>0</v>
+      <c r="BZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>-4.910437668221213</v>
       </c>
     </row>
     <row r="35">
@@ -8113,31 +8841,52 @@
         <v>19.21392857142859</v>
       </c>
       <c r="BL35" t="n">
+        <v>17.83074792243769</v>
+      </c>
+      <c r="BM35" t="n">
         <v>3.416666666666667</v>
       </c>
-      <c r="BM35" t="n">
+      <c r="BN35" t="n">
         <v>1.709999999999999</v>
       </c>
-      <c r="BN35" t="n">
-        <v>0</v>
-      </c>
       <c r="BO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP35" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP35" t="n">
+      <c r="BQ35" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BQ35" t="n">
+      <c r="BR35" t="n">
         <v>14.7258064516129</v>
       </c>
-      <c r="BR35" t="n">
+      <c r="BS35" t="n">
         <v>1.033333333333333</v>
       </c>
-      <c r="BS35" t="n">
+      <c r="BT35" t="n">
+        <v>60.16870967741936</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>167</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>51.63400552486227</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>44.93664835164839</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>58.34451523545722</v>
+      </c>
+      <c r="BY35" t="n">
         <v>3.792812332917597</v>
       </c>
-      <c r="BT35" t="n">
-        <v>0</v>
+      <c r="BZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>-8.534704152557097</v>
       </c>
     </row>
     <row r="36">
@@ -8331,31 +9080,52 @@
         <v>17.36827751196176</v>
       </c>
       <c r="BL36" t="n">
+        <v>21.23240384615381</v>
+      </c>
+      <c r="BM36" t="n">
         <v>7.05</v>
       </c>
-      <c r="BM36" t="n">
+      <c r="BN36" t="n">
         <v>1.6</v>
       </c>
-      <c r="BN36" t="n">
+      <c r="BO36" t="n">
         <v>1.91</v>
       </c>
-      <c r="BO36" t="n">
+      <c r="BP36" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP36" t="n">
+      <c r="BQ36" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="BQ36" t="n">
+      <c r="BR36" t="n">
         <v>14.62265553869501</v>
       </c>
-      <c r="BR36" t="n">
+      <c r="BS36" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS36" t="n">
+      <c r="BT36" t="n">
+        <v>65.51608497723815</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>72</v>
+      </c>
+      <c r="BV36" t="n">
+        <v>56.23827200000024</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>59.06545454545457</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>50.47908653846154</v>
+      </c>
+      <c r="BY36" t="n">
         <v>4.024672461304993</v>
       </c>
-      <c r="BT36" t="n">
-        <v>0</v>
+      <c r="BZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>-9.277812977237907</v>
       </c>
     </row>
     <row r="37">
@@ -8549,31 +9319,52 @@
         <v>20.11550251256284</v>
       </c>
       <c r="BL37" t="n">
+        <v>18.8546260387812</v>
+      </c>
+      <c r="BM37" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="BM37" t="n">
+      <c r="BN37" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BN37" t="n">
+      <c r="BO37" t="n">
         <v>1.700000000000001</v>
       </c>
-      <c r="BO37" t="n">
+      <c r="BP37" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP37" t="n">
+      <c r="BQ37" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BQ37" t="n">
+      <c r="BR37" t="n">
         <v>14.69249235474009</v>
       </c>
-      <c r="BR37" t="n">
+      <c r="BS37" t="n">
         <v>10.9</v>
       </c>
-      <c r="BS37" t="n">
+      <c r="BT37" t="n">
+        <v>60.33961773700326</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>148</v>
+      </c>
+      <c r="BV37" t="n">
+        <v>48.80159630606888</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>44.05738693467342</v>
+      </c>
+      <c r="BX37" t="n">
+        <v>53.98382271468152</v>
+      </c>
+      <c r="BY37" t="n">
         <v>4.814090758716505</v>
       </c>
-      <c r="BT37" t="n">
-        <v>0</v>
+      <c r="BZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA37" t="n">
+        <v>-11.53802143093438</v>
       </c>
     </row>
     <row r="38">
@@ -8767,31 +9558,52 @@
         <v>19.97703087885988</v>
       </c>
       <c r="BL38" t="n">
+        <v>18.6323184357542</v>
+      </c>
+      <c r="BM38" t="n">
         <v>3.7</v>
       </c>
-      <c r="BM38" t="n">
+      <c r="BN38" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BN38" t="n">
+      <c r="BO38" t="n">
         <v>1.889999999999999</v>
       </c>
-      <c r="BO38" t="n">
+      <c r="BP38" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP38" t="n">
+      <c r="BQ38" t="n">
         <v>3.789999999999999</v>
       </c>
-      <c r="BQ38" t="n">
+      <c r="BR38" t="n">
         <v>14.68604938271607</v>
       </c>
-      <c r="BR38" t="n">
+      <c r="BS38" t="n">
         <v>10.8</v>
       </c>
-      <c r="BS38" t="n">
+      <c r="BT38" t="n">
+        <v>61.10989197530874</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>148</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>51.64781491002609</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>46.70700712589075</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>57.4280726256985</v>
+      </c>
+      <c r="BY38" t="n">
         <v>4.663822082579671</v>
       </c>
-      <c r="BT38" t="n">
-        <v>0</v>
+      <c r="BZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>-9.462077065282649</v>
       </c>
     </row>
     <row r="39">
@@ -8985,31 +9797,52 @@
         <v>18.67909738717342</v>
       </c>
       <c r="BL39" t="n">
+        <v>19.02955678670363</v>
+      </c>
+      <c r="BM39" t="n">
         <v>5.933333333333334</v>
       </c>
-      <c r="BM39" t="n">
+      <c r="BN39" t="n">
         <v>1.4</v>
       </c>
-      <c r="BN39" t="n">
+      <c r="BO39" t="n">
         <v>2</v>
       </c>
-      <c r="BO39" t="n">
+      <c r="BP39" t="n">
         <v>-2.609999999999999</v>
       </c>
-      <c r="BP39" t="n">
+      <c r="BQ39" t="n">
         <v>2</v>
       </c>
-      <c r="BQ39" t="n">
+      <c r="BR39" t="n">
         <v>14.6308345978756</v>
       </c>
-      <c r="BR39" t="n">
+      <c r="BS39" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS39" t="n">
+      <c r="BT39" t="n">
+        <v>64.36867981790598</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>121</v>
+      </c>
+      <c r="BV39" t="n">
+        <v>47.70805377720904</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>44.495296912114</v>
+      </c>
+      <c r="BX39" t="n">
+        <v>51.40930747922452</v>
+      </c>
+      <c r="BY39" t="n">
         <v>4.205106503276868</v>
       </c>
-      <c r="BT39" t="n">
-        <v>0</v>
+      <c r="BZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA39" t="n">
+        <v>-16.66062604069695</v>
       </c>
     </row>
     <row r="40">
@@ -9203,31 +10036,52 @@
         <v>17.77196642685854</v>
       </c>
       <c r="BL40" t="n">
+        <v>15.96358333333334</v>
+      </c>
+      <c r="BM40" t="n">
         <v>7.516666666666667</v>
       </c>
-      <c r="BM40" t="n">
+      <c r="BN40" t="n">
         <v>1.5</v>
       </c>
-      <c r="BN40" t="n">
+      <c r="BO40" t="n">
         <v>1.81</v>
       </c>
-      <c r="BO40" t="n">
+      <c r="BP40" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP40" t="n">
+      <c r="BQ40" t="n">
         <v>-4</v>
       </c>
-      <c r="BQ40" t="n">
+      <c r="BR40" t="n">
         <v>14.62112291350534</v>
       </c>
-      <c r="BR40" t="n">
+      <c r="BS40" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS40" t="n">
+      <c r="BT40" t="n">
+        <v>64.42115326251917</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>84</v>
+      </c>
+      <c r="BV40" t="n">
+        <v>61.51896907216513</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>58.43781774580349</v>
+      </c>
+      <c r="BX40" t="n">
+        <v>65.06125000000013</v>
+      </c>
+      <c r="BY40" t="n">
         <v>2.306725024639031</v>
       </c>
-      <c r="BT40" t="n">
-        <v>0</v>
+      <c r="BZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>-2.902184190354035</v>
       </c>
     </row>
     <row r="41">
@@ -9421,31 +10275,52 @@
         <v>20.33447619047622</v>
       </c>
       <c r="BL41" t="n">
+        <v>19.15759002770085</v>
+      </c>
+      <c r="BM41" t="n">
         <v>9.25</v>
-      </c>
-      <c r="BM41" t="n">
-        <v>1.5</v>
       </c>
       <c r="BN41" t="n">
         <v>1.5</v>
       </c>
       <c r="BO41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BP41" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP41" t="n">
+      <c r="BQ41" t="n">
         <v>-0.3999999999999986</v>
       </c>
-      <c r="BQ41" t="n">
+      <c r="BR41" t="n">
         <v>14.6261491628615</v>
       </c>
-      <c r="BR41" t="n">
+      <c r="BS41" t="n">
         <v>10.65</v>
       </c>
-      <c r="BS41" t="n">
+      <c r="BT41" t="n">
+        <v>65.88809741248095</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>70</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>54.75774358974402</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>54.27264285714286</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>55.29313019390599</v>
+      </c>
+      <c r="BY41" t="n">
         <v>5.159453401241164</v>
       </c>
-      <c r="BT41" t="n">
-        <v>0</v>
+      <c r="BZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>-11.13035382273693</v>
       </c>
     </row>
     <row r="42">
@@ -9639,31 +10514,52 @@
         <v>18.5841904761905</v>
       </c>
       <c r="BL42" t="n">
+        <v>18.48022408963585</v>
+      </c>
+      <c r="BM42" t="n">
         <v>9.783333333333333</v>
       </c>
-      <c r="BM42" t="n">
+      <c r="BN42" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BN42" t="n">
+      <c r="BO42" t="n">
         <v>2.09</v>
       </c>
-      <c r="BO42" t="n">
+      <c r="BP42" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP42" t="n">
+      <c r="BQ42" t="n">
         <v>-1</v>
       </c>
-      <c r="BQ42" t="n">
+      <c r="BR42" t="n">
         <v>14.58110773899852</v>
       </c>
-      <c r="BR42" t="n">
+      <c r="BS42" t="n">
         <v>10.8</v>
       </c>
-      <c r="BS42" t="n">
+      <c r="BT42" t="n">
+        <v>68.18871016691962</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>49</v>
+      </c>
+      <c r="BV42" t="n">
+        <v>57.2225902061859</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>55.35657142857145</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>59.38308123249318</v>
+      </c>
+      <c r="BY42" t="n">
         <v>3.948415456877841</v>
       </c>
-      <c r="BT42" t="n">
-        <v>0</v>
+      <c r="BZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA42" t="n">
+        <v>-10.96611996073372</v>
       </c>
     </row>
     <row r="43">
@@ -9857,31 +10753,52 @@
         <v>18.20781472684087</v>
       </c>
       <c r="BL43" t="n">
+        <v>17.85105263157896</v>
+      </c>
+      <c r="BM43" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="BM43" t="n">
+      <c r="BN43" t="n">
         <v>1.5</v>
       </c>
-      <c r="BN43" t="n">
+      <c r="BO43" t="n">
         <v>1.91</v>
       </c>
-      <c r="BO43" t="n">
+      <c r="BP43" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP43" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR43" t="n">
         <v>14.77346036585373</v>
       </c>
-      <c r="BR43" t="n">
+      <c r="BS43" t="n">
         <v>10.93333333333333</v>
       </c>
-      <c r="BS43" t="n">
+      <c r="BT43" t="n">
+        <v>61.69445121951224</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>166</v>
+      </c>
+      <c r="BV43" t="n">
+        <v>56.56688860435368</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>52.33885985748222</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>61.46030470914145</v>
+      </c>
+      <c r="BY43" t="n">
         <v>3.261904550919722</v>
       </c>
-      <c r="BT43" t="n">
-        <v>0</v>
+      <c r="BZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA43" t="n">
+        <v>-5.12756261515856</v>
       </c>
     </row>
     <row r="44">
@@ -10075,31 +10992,52 @@
         <v>17.2802669902913</v>
       </c>
       <c r="BL44" t="n">
+        <v>19.83996960486322</v>
+      </c>
+      <c r="BM44" t="n">
         <v>4.1</v>
       </c>
-      <c r="BM44" t="n">
+      <c r="BN44" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="BN44" t="n">
+      <c r="BO44" t="n">
         <v>1.81</v>
       </c>
-      <c r="BO44" t="n">
+      <c r="BP44" t="n">
         <v>-2.81</v>
       </c>
-      <c r="BP44" t="n">
+      <c r="BQ44" t="n">
         <v>2.890000000000001</v>
       </c>
-      <c r="BQ44" t="n">
+      <c r="BR44" t="n">
         <v>14.6704704097117</v>
       </c>
-      <c r="BR44" t="n">
+      <c r="BS44" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS44" t="n">
+      <c r="BT44" t="n">
+        <v>67.24634294385449</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>174</v>
+      </c>
+      <c r="BV44" t="n">
+        <v>50.49106756756797</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>46.90356796116513</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>54.96477203647432</v>
+      </c>
+      <c r="BY44" t="n">
         <v>3.739570130828868</v>
       </c>
-      <c r="BT44" t="n">
-        <v>0</v>
+      <c r="BZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>-16.75527537628652</v>
       </c>
     </row>
     <row r="45">
@@ -10293,31 +11231,52 @@
         <v>21.20012019230772</v>
       </c>
       <c r="BL45" t="n">
+        <v>17.69127777777781</v>
+      </c>
+      <c r="BM45" t="n">
         <v>18.18333333333333</v>
       </c>
-      <c r="BM45" t="n">
+      <c r="BN45" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BN45" t="n">
+      <c r="BO45" t="n">
         <v>3.100000000000001</v>
       </c>
-      <c r="BO45" t="n">
+      <c r="BP45" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP45" t="n">
+      <c r="BQ45" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="BQ45" t="n">
+      <c r="BR45" t="n">
         <v>14.62088280060886</v>
       </c>
-      <c r="BR45" t="n">
+      <c r="BS45" t="n">
         <v>8.166666666666666</v>
       </c>
-      <c r="BS45" t="n">
+      <c r="BT45" t="n">
+        <v>74.03555555555582</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>149</v>
+      </c>
+      <c r="BV45" t="n">
+        <v>66.19723870967768</v>
+      </c>
+      <c r="BW45" t="n">
+        <v>63.98322115384615</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>68.7320555555557</v>
+      </c>
+      <c r="BY45" t="n">
         <v>4.944691392939625</v>
       </c>
-      <c r="BT45" t="n">
-        <v>0</v>
+      <c r="BZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA45" t="n">
+        <v>-7.83831684587814</v>
       </c>
     </row>
     <row r="46">
@@ -10511,31 +11470,52 @@
         <v>19.4564028776979</v>
       </c>
       <c r="BL46" t="n">
+        <v>17.96761111111113</v>
+      </c>
+      <c r="BM46" t="n">
         <v>16.43333333333333</v>
       </c>
-      <c r="BM46" t="n">
+      <c r="BN46" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BN46" t="n">
+      <c r="BO46" t="n">
         <v>2.300000000000001</v>
       </c>
-      <c r="BO46" t="n">
+      <c r="BP46" t="n">
         <v>-3.31</v>
       </c>
-      <c r="BP46" t="n">
+      <c r="BQ46" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="BQ46" t="n">
+      <c r="BR46" t="n">
         <v>14.58992401215805</v>
       </c>
-      <c r="BR46" t="n">
+      <c r="BS46" t="n">
         <v>9.75</v>
       </c>
-      <c r="BS46" t="n">
+      <c r="BT46" t="n">
+        <v>73.28787234042576</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>160</v>
+      </c>
+      <c r="BV46" t="n">
+        <v>61.83331185567024</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>54.79657074340537</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>69.95213888888908</v>
+      </c>
+      <c r="BY46" t="n">
         <v>4.168284750728615</v>
       </c>
-      <c r="BT46" t="n">
-        <v>0</v>
+      <c r="BZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA46" t="n">
+        <v>-11.45456048475553</v>
       </c>
     </row>
     <row r="47">
@@ -10729,31 +11709,52 @@
         <v>18.06774580335737</v>
       </c>
       <c r="BL47" t="n">
+        <v>16.56033333333335</v>
+      </c>
+      <c r="BM47" t="n">
         <v>17.5</v>
       </c>
-      <c r="BM47" t="n">
+      <c r="BN47" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BN47" t="n">
+      <c r="BO47" t="n">
         <v>1.799999999999999</v>
       </c>
-      <c r="BO47" t="n">
+      <c r="BP47" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP47" t="n">
+      <c r="BQ47" t="n">
         <v>-0.8000000000000007</v>
       </c>
-      <c r="BQ47" t="n">
+      <c r="BR47" t="n">
         <v>14.64984709480127</v>
       </c>
-      <c r="BR47" t="n">
+      <c r="BS47" t="n">
         <v>10.86666666666667</v>
       </c>
-      <c r="BS47" t="n">
+      <c r="BT47" t="n">
+        <v>67.90585626911319</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>157</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>60.82914948453617</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>51.52345323741011</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>71.54816666666673</v>
+      </c>
+      <c r="BY47" t="n">
         <v>2.711454451590537</v>
       </c>
-      <c r="BT47" t="n">
-        <v>0</v>
+      <c r="BZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>-7.07670678457702</v>
       </c>
     </row>
     <row r="48">
@@ -10947,31 +11948,52 @@
         <v>18.97659793814435</v>
       </c>
       <c r="BL48" t="n">
+        <v>19.41722543352601</v>
+      </c>
+      <c r="BM48" t="n">
         <v>14.58333333333333</v>
       </c>
-      <c r="BM48" t="n">
+      <c r="BN48" t="n">
         <v>0.6899999999999995</v>
       </c>
-      <c r="BN48" t="n">
+      <c r="BO48" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BO48" t="n">
+      <c r="BP48" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP48" t="n">
+      <c r="BQ48" t="n">
         <v>2</v>
       </c>
-      <c r="BQ48" t="n">
+      <c r="BR48" t="n">
         <v>14.7207294832827</v>
       </c>
-      <c r="BR48" t="n">
+      <c r="BS48" t="n">
         <v>10.96666666666667</v>
       </c>
-      <c r="BS48" t="n">
+      <c r="BT48" t="n">
+        <v>67.57796352583595</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>133</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>50.49008185538909</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>43.66608247422681</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>58.07078034682091</v>
+      </c>
+      <c r="BY48" t="n">
         <v>4.461385114261725</v>
       </c>
-      <c r="BT48" t="n">
-        <v>0</v>
+      <c r="BZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA48" t="n">
+        <v>-17.08788167044687</v>
       </c>
     </row>
     <row r="49">
@@ -11165,31 +12187,52 @@
         <v>18.3170573566085</v>
       </c>
       <c r="BL49" t="n">
+        <v>19.47545977011495</v>
+      </c>
+      <c r="BM49" t="n">
         <v>14.91666666666667</v>
       </c>
-      <c r="BM49" t="n">
+      <c r="BN49" t="n">
         <v>1.6</v>
       </c>
-      <c r="BN49" t="n">
+      <c r="BO49" t="n">
         <v>1.91</v>
       </c>
-      <c r="BO49" t="n">
+      <c r="BP49" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP49" t="n">
+      <c r="BQ49" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BQ49" t="n">
+      <c r="BR49" t="n">
         <v>14.59126153846158</v>
       </c>
-      <c r="BR49" t="n">
+      <c r="BS49" t="n">
         <v>7.4</v>
       </c>
-      <c r="BS49" t="n">
+      <c r="BT49" t="n">
+        <v>75.51826153846166</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>143</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>54.37521390374362</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>49.81391521197007</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>59.60163793103467</v>
+      </c>
+      <c r="BY49" t="n">
         <v>4.256612793089317</v>
       </c>
-      <c r="BT49" t="n">
-        <v>0</v>
+      <c r="BZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>-21.14304763471804</v>
       </c>
     </row>
     <row r="50">
@@ -11383,31 +12426,52 @@
         <v>14.94725060827253</v>
       </c>
       <c r="BL50" t="n">
+        <v>15.0099135446686</v>
+      </c>
+      <c r="BM50" t="n">
         <v>22.88333333333333</v>
       </c>
-      <c r="BM50" t="n">
+      <c r="BN50" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BN50" t="n">
+      <c r="BO50" t="n">
         <v>1.610000000000001</v>
       </c>
-      <c r="BO50" t="n">
+      <c r="BP50" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP50" t="n">
+      <c r="BQ50" t="n">
         <v>-8.5</v>
       </c>
-      <c r="BQ50" t="n">
+      <c r="BR50" t="n">
         <v>14.55294656488551</v>
       </c>
-      <c r="BR50" t="n">
+      <c r="BS50" t="n">
         <v>3.283333333333333</v>
       </c>
-      <c r="BS50" t="n">
+      <c r="BT50" t="n">
+        <v>79.18082442748111</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>80.06574636723937</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>80.59413625304123</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>79.44403458213253</v>
+      </c>
+      <c r="BY50" t="n">
         <v>0.4208447164883289</v>
       </c>
-      <c r="BT50" t="n">
-        <v>0</v>
+      <c r="BZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>0.8849219397582573</v>
       </c>
     </row>
     <row r="51">
@@ -11601,31 +12665,52 @@
         <v>17.05900523560212</v>
       </c>
       <c r="BL51" t="n">
+        <v>18.16046783625731</v>
+      </c>
+      <c r="BM51" t="n">
         <v>16.08333333333333</v>
       </c>
-      <c r="BM51" t="n">
+      <c r="BN51" t="n">
         <v>1.59</v>
       </c>
-      <c r="BN51" t="n">
+      <c r="BO51" t="n">
         <v>1.91</v>
       </c>
-      <c r="BO51" t="n">
+      <c r="BP51" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP51" t="n">
+      <c r="BQ51" t="n">
         <v>-1.109999999999999</v>
       </c>
-      <c r="BQ51" t="n">
+      <c r="BR51" t="n">
         <v>14.68343032159266</v>
       </c>
-      <c r="BR51" t="n">
+      <c r="BS51" t="n">
         <v>10.88333333333333</v>
       </c>
-      <c r="BS51" t="n">
+      <c r="BT51" t="n">
+        <v>69.37108728943345</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>85</v>
+      </c>
+      <c r="BV51" t="n">
+        <v>59.78543568464762</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>55.22489528795811</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>64.81274853801189</v>
+      </c>
+      <c r="BY51" t="n">
         <v>2.892392638296736</v>
       </c>
-      <c r="BT51" t="n">
-        <v>0</v>
+      <c r="BZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>-9.585651604785831</v>
       </c>
     </row>
     <row r="52">
@@ -11819,31 +12904,52 @@
         <v>20.80256157635472</v>
       </c>
       <c r="BL52" t="n">
+        <v>20.02324159021407</v>
+      </c>
+      <c r="BM52" t="n">
         <v>14.86666666666667</v>
       </c>
-      <c r="BM52" t="n">
+      <c r="BN52" t="n">
         <v>1.790000000000001</v>
       </c>
-      <c r="BN52" t="n">
+      <c r="BO52" t="n">
         <v>1.9</v>
       </c>
-      <c r="BO52" t="n">
+      <c r="BP52" t="n">
         <v>-3</v>
       </c>
-      <c r="BP52" t="n">
+      <c r="BQ52" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="BQ52" t="n">
+      <c r="BR52" t="n">
         <v>14.63332826747723</v>
       </c>
-      <c r="BR52" t="n">
+      <c r="BS52" t="n">
         <v>10.56666666666667</v>
       </c>
-      <c r="BS52" t="n">
+      <c r="BT52" t="n">
+        <v>72.42349544072958</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>112</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>54.26434426229543</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>51.37778325123156</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>57.83064220183504</v>
+      </c>
+      <c r="BY52" t="n">
         <v>5.818092497550191</v>
       </c>
-      <c r="BT52" t="n">
-        <v>0</v>
+      <c r="BZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>-18.15915117843415</v>
       </c>
     </row>
     <row r="53">
@@ -12037,31 +13143,52 @@
         <v>22.45572463768119</v>
       </c>
       <c r="BL53" t="n">
+        <v>20.81826470588236</v>
+      </c>
+      <c r="BM53" t="n">
         <v>12.98333333333333</v>
       </c>
-      <c r="BM53" t="n">
+      <c r="BN53" t="n">
         <v>1.5</v>
       </c>
-      <c r="BN53" t="n">
+      <c r="BO53" t="n">
         <v>3.309999999999999</v>
       </c>
-      <c r="BO53" t="n">
+      <c r="BP53" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP53" t="n">
+      <c r="BQ53" t="n">
         <v>4.199999999999999</v>
       </c>
-      <c r="BQ53" t="n">
+      <c r="BR53" t="n">
         <v>14.32468412942994</v>
       </c>
-      <c r="BR53" t="n">
+      <c r="BS53" t="n">
         <v>0.1166666666666667</v>
       </c>
-      <c r="BS53" t="n">
+      <c r="BT53" t="n">
+        <v>86.22705701078593</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>66</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>52.0185524568397</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>44.79968599033818</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>60.80029411764729</v>
+      </c>
+      <c r="BY53" t="n">
         <v>7.382195020636601</v>
       </c>
-      <c r="BT53" t="n">
-        <v>0</v>
+      <c r="BZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>-34.20850455394623</v>
       </c>
     </row>
     <row r="54">
@@ -12255,31 +13382,52 @@
         <v>23.96217703349289</v>
       </c>
       <c r="BL54" t="n">
+        <v>20.62762039660058</v>
+      </c>
+      <c r="BM54" t="n">
         <v>0.95</v>
-      </c>
-      <c r="BM54" t="n">
-        <v>1.699999999999999</v>
       </c>
       <c r="BN54" t="n">
         <v>1.699999999999999</v>
       </c>
       <c r="BO54" t="n">
+        <v>1.699999999999999</v>
+      </c>
+      <c r="BP54" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP54" t="n">
+      <c r="BQ54" t="n">
         <v>5.199999999999999</v>
       </c>
-      <c r="BQ54" t="n">
+      <c r="BR54" t="n">
         <v>16.12694888178916</v>
       </c>
-      <c r="BR54" t="n">
+      <c r="BS54" t="n">
         <v>0.01666666666666667</v>
       </c>
-      <c r="BS54" t="n">
+      <c r="BT54" t="n">
+        <v>89.86928115016006</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>151</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>61.58645454545471</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>52.33370813397141</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>72.48688385269146</v>
+      </c>
+      <c r="BY54" t="n">
         <v>6.300908261068123</v>
       </c>
-      <c r="BT54" t="n">
-        <v>0</v>
+      <c r="BZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>-28.28282660470536</v>
       </c>
     </row>
     <row r="55">
@@ -12473,31 +13621,52 @@
         <v>16.24364508393291</v>
       </c>
       <c r="BL55" t="n">
+        <v>15.82372222222226</v>
+      </c>
+      <c r="BM55" t="n">
         <v>8.5</v>
       </c>
-      <c r="BM55" t="n">
+      <c r="BN55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BN55" t="n">
+      <c r="BO55" t="n">
         <v>1.59</v>
       </c>
-      <c r="BO55" t="n">
+      <c r="BP55" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP55" t="n">
+      <c r="BQ55" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BQ55" t="n">
+      <c r="BR55" t="n">
         <v>14.60425727411947</v>
       </c>
-      <c r="BR55" t="n">
+      <c r="BS55" t="n">
         <v>1.433333333333333</v>
       </c>
-      <c r="BS55" t="n">
+      <c r="BT55" t="n">
+        <v>82.14312404287928</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>145</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>80.6615979381444</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>75.95388489208624</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>86.05061111111101</v>
+      </c>
+      <c r="BY55" t="n">
         <v>1.430588086705287</v>
       </c>
-      <c r="BT55" t="n">
-        <v>0</v>
+      <c r="BZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>-1.481526104734883</v>
       </c>
     </row>
     <row r="56">
@@ -12691,31 +13860,52 @@
         <v>21.45643979057596</v>
       </c>
       <c r="BL56" t="n">
+        <v>21.01008571428573</v>
+      </c>
+      <c r="BM56" t="n">
         <v>14.2</v>
       </c>
-      <c r="BM56" t="n">
+      <c r="BN56" t="n">
         <v>1.81</v>
       </c>
-      <c r="BN56" t="n">
+      <c r="BO56" t="n">
         <v>2</v>
       </c>
-      <c r="BO56" t="n">
+      <c r="BP56" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP56" t="n">
+      <c r="BQ56" t="n">
         <v>2.100000000000001</v>
       </c>
-      <c r="BQ56" t="n">
+      <c r="BR56" t="n">
         <v>14.54390839694661</v>
       </c>
-      <c r="BR56" t="n">
+      <c r="BS56" t="n">
         <v>0.3833333333333334</v>
       </c>
-      <c r="BS56" t="n">
+      <c r="BT56" t="n">
+        <v>81.69418320610704</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>162</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>57.23119015047909</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>53.2592931937174</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>61.52725714285739</v>
+      </c>
+      <c r="BY56" t="n">
         <v>6.692466432054889</v>
       </c>
-      <c r="BT56" t="n">
-        <v>0</v>
+      <c r="BZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>-24.46299305562795</v>
       </c>
     </row>
     <row r="57">
@@ -12909,31 +14099,52 @@
         <v>17.93435323383087</v>
       </c>
       <c r="BL57" t="n">
+        <v>17.94893063583815</v>
+      </c>
+      <c r="BM57" t="n">
         <v>10.25</v>
       </c>
-      <c r="BM57" t="n">
+      <c r="BN57" t="n">
         <v>1.700000000000001</v>
       </c>
-      <c r="BN57" t="n">
+      <c r="BO57" t="n">
         <v>1.31</v>
       </c>
-      <c r="BO57" t="n">
+      <c r="BP57" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP57" t="n">
+      <c r="BQ57" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="BQ57" t="n">
+      <c r="BR57" t="n">
         <v>14.48560490045944</v>
       </c>
-      <c r="BR57" t="n">
-        <v>0</v>
-      </c>
       <c r="BS57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>86.71335375191452</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>153</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>72.06196787148619</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>69.49741293532335</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>74.9526589595377</v>
+      </c>
+      <c r="BY57" t="n">
         <v>3.447915849205932</v>
       </c>
-      <c r="BT57" t="n">
-        <v>0</v>
+      <c r="BZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>-14.65138588042834</v>
       </c>
     </row>
     <row r="58">
@@ -13127,31 +14338,52 @@
         <v>18.6321265822785</v>
       </c>
       <c r="BL58" t="n">
+        <v>16.20822157434404</v>
+      </c>
+      <c r="BM58" t="n">
         <v>11.16666666666667</v>
       </c>
-      <c r="BM58" t="n">
+      <c r="BN58" t="n">
         <v>1.700000000000001</v>
       </c>
-      <c r="BN58" t="n">
+      <c r="BO58" t="n">
         <v>2.6</v>
       </c>
-      <c r="BO58" t="n">
+      <c r="BP58" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP58" t="n">
+      <c r="BQ58" t="n">
         <v>-3.609999999999999</v>
       </c>
-      <c r="BQ58" t="n">
+      <c r="BR58" t="n">
         <v>14.48646502835543</v>
       </c>
-      <c r="BR58" t="n">
-        <v>0</v>
-      </c>
       <c r="BS58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>85.19202268431022</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>22</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>81.48694708276825</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>78.44703797468348</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>84.97317784256553</v>
+      </c>
+      <c r="BY58" t="n">
         <v>3.016940670423491</v>
       </c>
-      <c r="BT58" t="n">
-        <v>0</v>
+      <c r="BZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>-3.705075601541964</v>
       </c>
     </row>
     <row r="59">
@@ -13345,31 +14577,52 @@
         <v>17.73574358974361</v>
       </c>
       <c r="BL59" t="n">
+        <v>16.73184438040345</v>
+      </c>
+      <c r="BM59" t="n">
         <v>13</v>
       </c>
-      <c r="BM59" t="n">
+      <c r="BN59" t="n">
         <v>1.59</v>
       </c>
-      <c r="BN59" t="n">
+      <c r="BO59" t="n">
         <v>2</v>
       </c>
-      <c r="BO59" t="n">
+      <c r="BP59" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP59" t="n">
+      <c r="BQ59" t="n">
         <v>-3</v>
       </c>
-      <c r="BQ59" t="n">
+      <c r="BR59" t="n">
         <v>14.92819032761312</v>
       </c>
-      <c r="BR59" t="n">
-        <v>0</v>
-      </c>
       <c r="BS59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>81.69062402496122</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>50</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>77.11361413043478</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>69.8959743589744</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>85.1982132564841</v>
+      </c>
+      <c r="BY59" t="n">
         <v>2.332135759343492</v>
       </c>
-      <c r="BT59" t="n">
-        <v>0</v>
+      <c r="BZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>-4.577009894526441</v>
       </c>
     </row>
     <row r="60">
@@ -13563,31 +14816,52 @@
         <v>18.65822335025382</v>
       </c>
       <c r="BL60" t="n">
+        <v>16.77081081081081</v>
+      </c>
+      <c r="BM60" t="n">
         <v>13.2</v>
       </c>
-      <c r="BM60" t="n">
+      <c r="BN60" t="n">
         <v>1.59</v>
       </c>
-      <c r="BN60" t="n">
+      <c r="BO60" t="n">
         <v>1.799999999999999</v>
       </c>
-      <c r="BO60" t="n">
+      <c r="BP60" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP60" t="n">
+      <c r="BQ60" t="n">
         <v>-1.210000000000001</v>
       </c>
-      <c r="BQ60" t="n">
+      <c r="BR60" t="n">
         <v>14.67138719512198</v>
       </c>
-      <c r="BR60" t="n">
-        <v>0</v>
-      </c>
       <c r="BS60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>84.20871951219536</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>120</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>68.0722314049585</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>58.08177664974623</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>79.86162162162162</v>
+      </c>
+      <c r="BY60" t="n">
         <v>3.1128001327018</v>
       </c>
-      <c r="BT60" t="n">
-        <v>0</v>
+      <c r="BZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>-16.13648810723686</v>
       </c>
     </row>
     <row r="61">
@@ -13781,31 +15055,52 @@
         <v>20.25945312500002</v>
       </c>
       <c r="BL61" t="n">
+        <v>19.21229885057473</v>
+      </c>
+      <c r="BM61" t="n">
         <v>7.3</v>
       </c>
-      <c r="BM61" t="n">
+      <c r="BN61" t="n">
         <v>1.81</v>
       </c>
-      <c r="BN61" t="n">
+      <c r="BO61" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BO61" t="n">
+      <c r="BP61" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP61" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR61" t="n">
         <v>14.76701078582436</v>
       </c>
-      <c r="BR61" t="n">
-        <v>0</v>
-      </c>
       <c r="BS61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>83.87882896764278</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>83</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>66.69663474692221</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>59.82018229166678</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>74.2335919540232</v>
+      </c>
+      <c r="BY61" t="n">
         <v>4.988967326350847</v>
       </c>
-      <c r="BT61" t="n">
-        <v>0</v>
+      <c r="BZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>-17.18219422072056</v>
       </c>
     </row>
     <row r="62">
@@ -13999,31 +15294,52 @@
         <v>22.03002717391307</v>
       </c>
       <c r="BL62" t="n">
+        <v>18.82564263322884</v>
+      </c>
+      <c r="BM62" t="n">
         <v>8.383333333333333</v>
       </c>
-      <c r="BM62" t="n">
+      <c r="BN62" t="n">
         <v>1.91</v>
       </c>
-      <c r="BN62" t="n">
+      <c r="BO62" t="n">
         <v>2.9</v>
       </c>
-      <c r="BO62" t="n">
+      <c r="BP62" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP62" t="n">
+      <c r="BQ62" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BQ62" t="n">
+      <c r="BR62" t="n">
         <v>14.6198576512456</v>
       </c>
-      <c r="BR62" t="n">
-        <v>0</v>
-      </c>
       <c r="BS62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>85.82823843416369</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>61</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>64.63919825072907</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>55.8253804347827</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>74.7490595611287</v>
+      </c>
+      <c r="BY62" t="n">
         <v>5.913276459541704</v>
       </c>
-      <c r="BT62" t="n">
-        <v>0</v>
+      <c r="BZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA62" t="n">
+        <v>-21.18904018343463</v>
       </c>
     </row>
     <row r="63">
@@ -14217,31 +15533,52 @@
         <v>22.67222513089003</v>
       </c>
       <c r="BL63" t="n">
+        <v>21.00870370370371</v>
+      </c>
+      <c r="BM63" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BM63" t="n">
+      <c r="BN63" t="n">
         <v>1.5</v>
       </c>
-      <c r="BN63" t="n">
+      <c r="BO63" t="n">
         <v>2.500000000000002</v>
       </c>
-      <c r="BO63" t="n">
+      <c r="BP63" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP63" t="n">
+      <c r="BQ63" t="n">
         <v>4</v>
       </c>
-      <c r="BQ63" t="n">
+      <c r="BR63" t="n">
         <v>14.73961783439495</v>
       </c>
-      <c r="BR63" t="n">
-        <v>0</v>
-      </c>
       <c r="BS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>89.74324840764343</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>179</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>64.1743971631208</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>58.78552356020952</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>70.48697530864222</v>
+      </c>
+      <c r="BY63" t="n">
         <v>7.158977910286003</v>
       </c>
-      <c r="BT63" t="n">
-        <v>0</v>
+      <c r="BZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>-25.56885124452263</v>
       </c>
     </row>
     <row r="64">
@@ -14435,31 +15772,52 @@
         <v>24.90497461928939</v>
       </c>
       <c r="BL64" t="n">
+        <v>22.82783536585367</v>
+      </c>
+      <c r="BM64" t="n">
         <v>0.6333333333333333</v>
       </c>
-      <c r="BM64" t="n">
+      <c r="BN64" t="n">
         <v>1.9</v>
       </c>
-      <c r="BN64" t="n">
+      <c r="BO64" t="n">
         <v>4.81</v>
       </c>
-      <c r="BO64" t="n">
+      <c r="BP64" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP64" t="n">
+      <c r="BQ64" t="n">
         <v>4.600000000000001</v>
       </c>
-      <c r="BQ64" t="n">
+      <c r="BR64" t="n">
         <v>14.98814634146342</v>
       </c>
-      <c r="BR64" t="n">
-        <v>0</v>
-      </c>
       <c r="BS64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>90.40439024390234</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>130</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>58.06933425797511</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>51.39596446700522</v>
+      </c>
+      <c r="BX64" t="n">
+        <v>66.06457317073196</v>
+      </c>
+      <c r="BY64" t="n">
         <v>8.967054768106724</v>
       </c>
-      <c r="BT64" t="n">
+      <c r="BZ64" t="n">
         <v>1</v>
+      </c>
+      <c r="CA64" t="n">
+        <v>-32.33505598592723</v>
       </c>
     </row>
     <row r="65">
@@ -14653,31 +16011,52 @@
         <v>18.02196969696968</v>
       </c>
       <c r="BL65" t="n">
+        <v>16.36596638655463</v>
+      </c>
+      <c r="BM65" t="n">
         <v>0.1833333333333333</v>
       </c>
-      <c r="BM65" t="n">
+      <c r="BN65" t="n">
         <v>0.2099999999999991</v>
       </c>
-      <c r="BN65" t="n">
+      <c r="BO65" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="BO65" t="n">
+      <c r="BP65" t="n">
         <v>-1.81</v>
       </c>
-      <c r="BP65" t="n">
+      <c r="BQ65" t="n">
         <v>-5.800000000000001</v>
       </c>
-      <c r="BQ65" t="n">
+      <c r="BR65" t="n">
         <v>14.5996842105263</v>
       </c>
-      <c r="BR65" t="n">
-        <v>0</v>
-      </c>
       <c r="BS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>91.11042105263159</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>91.06723826714818</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>89.89777777777772</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>91.71619047619042</v>
+      </c>
+      <c r="BY65" t="n">
         <v>2.354106403192183</v>
       </c>
-      <c r="BT65" t="n">
+      <c r="BZ65" t="n">
         <v>1</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>-0.0431827854834097</v>
       </c>
     </row>
     <row r="66">
@@ -14871,31 +16250,52 @@
         <v>21.69014285714285</v>
       </c>
       <c r="BL66" t="n">
+        <v>20.4117857142857</v>
+      </c>
+      <c r="BM66" t="n">
         <v>2.083333333333333</v>
       </c>
-      <c r="BM66" t="n">
+      <c r="BN66" t="n">
         <v>1.5</v>
       </c>
-      <c r="BN66" t="n">
+      <c r="BO66" t="n">
         <v>1.800000000000001</v>
       </c>
-      <c r="BO66" t="n">
+      <c r="BP66" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP66" t="n">
+      <c r="BQ66" t="n">
         <v>-0.8000000000000007</v>
       </c>
-      <c r="BQ66" t="n">
+      <c r="BR66" t="n">
         <v>15.01616564417181</v>
       </c>
-      <c r="BR66" t="n">
-        <v>0</v>
-      </c>
       <c r="BS66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>84.27019938650329</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>120</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>62.73473544973574</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>57.42785714285714</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>69.36833333333344</v>
+      </c>
+      <c r="BY66" t="n">
         <v>6.105818482812355</v>
       </c>
-      <c r="BT66" t="n">
+      <c r="BZ66" t="n">
         <v>1</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>-21.53546393676756</v>
       </c>
     </row>
     <row r="67">
@@ -15089,31 +16489,52 @@
         <v>24.41833333333334</v>
       </c>
       <c r="BL67" t="n">
+        <v>18.25285714285712</v>
+      </c>
+      <c r="BM67" t="n">
         <v>6.8</v>
       </c>
-      <c r="BM67" t="n">
+      <c r="BN67" t="n">
         <v>2.399999999999999</v>
       </c>
-      <c r="BN67" t="n">
+      <c r="BO67" t="n">
         <v>0.7099999999999991</v>
       </c>
-      <c r="BO67" t="n">
+      <c r="BP67" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP67" t="n">
+      <c r="BQ67" t="n">
         <v>-0.7100000000000009</v>
       </c>
-      <c r="BQ67" t="n">
+      <c r="BR67" t="n">
         <v>14.90833333333335</v>
       </c>
-      <c r="BR67" t="n">
-        <v>0</v>
-      </c>
       <c r="BS67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT67" t="n">
+        <v>86.4671296296296</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>95</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>74.03204255319156</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>51.60055555555555</v>
+      </c>
+      <c r="BX67" t="n">
+        <v>75.89271889400923</v>
+      </c>
+      <c r="BY67" t="n">
         <v>3.816773049645358</v>
       </c>
-      <c r="BT67" t="n">
+      <c r="BZ67" t="n">
         <v>1</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>-12.43508707643804</v>
       </c>
     </row>
     <row r="68">
@@ -15307,31 +16728,52 @@
         <v>16.24600000000001</v>
       </c>
       <c r="BL68" t="n">
+        <v>15.97166666666667</v>
+      </c>
+      <c r="BM68" t="n">
         <v>4.5</v>
       </c>
-      <c r="BM68" t="n">
+      <c r="BN68" t="n">
         <v>2.300000000000001</v>
       </c>
-      <c r="BN68" t="n">
+      <c r="BO68" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO68" t="n">
+      <c r="BP68" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP68" t="n">
+      <c r="BQ68" t="n">
         <v>-6.899999999999999</v>
       </c>
-      <c r="BQ68" t="n">
+      <c r="BR68" t="n">
         <v>14.34765527950321</v>
       </c>
-      <c r="BR68" t="n">
-        <v>0</v>
-      </c>
       <c r="BS68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>91.16537267080813</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>82</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>85.09257995735601</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>85.35514285714279</v>
+      </c>
+      <c r="BX68" t="n">
+        <v>84.25591666666666</v>
+      </c>
+      <c r="BY68" t="n">
         <v>1.823346852692993</v>
       </c>
-      <c r="BT68" t="n">
+      <c r="BZ68" t="n">
         <v>1</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>-6.072792713452117</v>
       </c>
     </row>
     <row r="69">
@@ -15525,31 +16967,52 @@
         <v>16.6961111111111</v>
       </c>
       <c r="BL69" t="n">
+        <v>16.65123134328357</v>
+      </c>
+      <c r="BM69" t="n">
         <v>0.6333333333333333</v>
       </c>
-      <c r="BM69" t="n">
+      <c r="BN69" t="n">
         <v>1.800000000000001</v>
       </c>
-      <c r="BN69" t="n">
+      <c r="BO69" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BO69" t="n">
+      <c r="BP69" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP69" t="n">
+      <c r="BQ69" t="n">
         <v>-6.109999999999999</v>
       </c>
-      <c r="BQ69" t="n">
+      <c r="BR69" t="n">
         <v>14.81734024179623</v>
       </c>
-      <c r="BR69" t="n">
-        <v>0</v>
-      </c>
       <c r="BS69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT69" t="n">
+        <v>90.32278065630399</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV69" t="n">
+        <v>89.46165236051517</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>88.37479797979786</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>90.26462686567157</v>
+      </c>
+      <c r="BY69" t="n">
         <v>1.852960187388337</v>
       </c>
-      <c r="BT69" t="n">
+      <c r="BZ69" t="n">
         <v>1</v>
+      </c>
+      <c r="CA69" t="n">
+        <v>-0.8611282957888164</v>
       </c>
     </row>
     <row r="70">
@@ -15743,31 +17206,52 @@
         <v>17.95250704225355</v>
       </c>
       <c r="BL70" t="n">
+        <v>17.84232786885246</v>
+      </c>
+      <c r="BM70" t="n">
         <v>2.766666666666667</v>
       </c>
-      <c r="BM70" t="n">
+      <c r="BN70" t="n">
         <v>2.000000000000002</v>
       </c>
-      <c r="BN70" t="n">
+      <c r="BO70" t="n">
         <v>1.299999999999999</v>
       </c>
-      <c r="BO70" t="n">
+      <c r="BP70" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP70" t="n">
+      <c r="BQ70" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BQ70" t="n">
+      <c r="BR70" t="n">
         <v>14.97909090909096</v>
       </c>
-      <c r="BR70" t="n">
-        <v>0</v>
-      </c>
       <c r="BS70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT70" t="n">
+        <v>87.34540832049323</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>71</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>70.54075757575808</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>68.60245070422532</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>72.79681967213138</v>
+      </c>
+      <c r="BY70" t="n">
         <v>2.922499999999992</v>
       </c>
-      <c r="BT70" t="n">
+      <c r="BZ70" t="n">
         <v>1</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>-16.80465074473516</v>
       </c>
     </row>
     <row r="71">
@@ -15961,31 +17445,52 @@
         <v>16.59362110311752</v>
       </c>
       <c r="BL71" t="n">
+        <v>15.89461971830989</v>
+      </c>
+      <c r="BM71" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="BM71" t="n">
+      <c r="BN71" t="n">
         <v>2.6</v>
       </c>
-      <c r="BN71" t="n">
+      <c r="BO71" t="n">
         <v>2</v>
       </c>
-      <c r="BO71" t="n">
+      <c r="BP71" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP71" t="n">
+      <c r="BQ71" t="n">
         <v>-5</v>
       </c>
-      <c r="BQ71" t="n">
+      <c r="BR71" t="n">
         <v>15.03122028526152</v>
       </c>
-      <c r="BR71" t="n">
-        <v>0</v>
-      </c>
       <c r="BS71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT71" t="n">
+        <v>87.75245641838372</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV71" t="n">
+        <v>87.27760051880702</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>87.36052757793759</v>
+      </c>
+      <c r="BX71" t="n">
+        <v>87.1703943661971</v>
+      </c>
+      <c r="BY71" t="n">
         <v>1.235627963765776</v>
       </c>
-      <c r="BT71" t="n">
+      <c r="BZ71" t="n">
         <v>1</v>
+      </c>
+      <c r="CA71" t="n">
+        <v>-0.4748558995766956</v>
       </c>
     </row>
     <row r="72">
@@ -16179,31 +17684,52 @@
         <v>18.57986225895317</v>
       </c>
       <c r="BL72" t="n">
+        <v>19.67790243902436</v>
+      </c>
+      <c r="BM72" t="n">
         <v>2.35</v>
       </c>
-      <c r="BM72" t="n">
+      <c r="BN72" t="n">
         <v>2.5</v>
       </c>
-      <c r="BN72" t="n">
+      <c r="BO72" t="n">
         <v>1.19</v>
       </c>
-      <c r="BO72" t="n">
+      <c r="BP72" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP72" t="n">
+      <c r="BQ72" t="n">
         <v>-1.800000000000001</v>
       </c>
-      <c r="BQ72" t="n">
+      <c r="BR72" t="n">
         <v>14.095</v>
       </c>
-      <c r="BR72" t="n">
-        <v>0</v>
-      </c>
       <c r="BS72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV72" t="n">
+        <v>63.80305114638485</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>58.01256198347119</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>74.04229268292691</v>
+      </c>
+      <c r="BY72" t="n">
         <v>4.876904761904811</v>
       </c>
-      <c r="BT72" t="n">
+      <c r="BZ72" t="n">
         <v>1</v>
+      </c>
+      <c r="CA72" t="n">
+        <v>-23.59694885361516</v>
       </c>
     </row>
     <row r="73">
@@ -16397,31 +17923,52 @@
         <v>20.19749379652609</v>
       </c>
       <c r="BL73" t="n">
+        <v>20.84817518248173</v>
+      </c>
+      <c r="BM73" t="n">
         <v>3.1</v>
       </c>
-      <c r="BM73" t="n">
+      <c r="BN73" t="n">
         <v>2.1</v>
       </c>
-      <c r="BN73" t="n">
+      <c r="BO73" t="n">
         <v>2.899999999999999</v>
       </c>
-      <c r="BO73" t="n">
+      <c r="BP73" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP73" t="n">
+      <c r="BQ73" t="n">
         <v>-1.899999999999999</v>
       </c>
-      <c r="BQ73" t="n">
+      <c r="BR73" t="n">
         <v>15.56925058548012</v>
       </c>
-      <c r="BR73" t="n">
-        <v>0</v>
-      </c>
       <c r="BS73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT73" t="n">
+        <v>85.63456674473071</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>76</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>61.9282745825606</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>58.39667493796534</v>
+      </c>
+      <c r="BX73" t="n">
+        <v>72.29248175182487</v>
+      </c>
+      <c r="BY73" t="n">
         <v>4.792882995224971</v>
       </c>
-      <c r="BT73" t="n">
+      <c r="BZ73" t="n">
         <v>1</v>
+      </c>
+      <c r="CA73" t="n">
+        <v>-23.7062921621701</v>
       </c>
     </row>
     <row r="74">
@@ -16615,31 +18162,52 @@
         <v>20.23560526315792</v>
       </c>
       <c r="BL74" t="n">
+        <v>20.59373390557938</v>
+      </c>
+      <c r="BM74" t="n">
         <v>4.55</v>
       </c>
-      <c r="BM74" t="n">
+      <c r="BN74" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BN74" t="n">
+      <c r="BO74" t="n">
         <v>2.109999999999999</v>
       </c>
-      <c r="BO74" t="n">
+      <c r="BP74" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP74" t="n">
+      <c r="BQ74" t="n">
         <v>-1.5</v>
       </c>
-      <c r="BQ74" t="n">
+      <c r="BR74" t="n">
         <v>15.32288477010569</v>
       </c>
-      <c r="BR74" t="n">
-        <v>0</v>
-      </c>
       <c r="BS74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT74" t="n">
+        <v>87.69974179102525</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>59</v>
+      </c>
+      <c r="BV74" t="n">
+        <v>64.52232026143818</v>
+      </c>
+      <c r="BW74" t="n">
+        <v>60.86423684210533</v>
+      </c>
+      <c r="BX74" t="n">
+        <v>70.49806866952795</v>
+      </c>
+      <c r="BY74" t="n">
         <v>5.047180589371562</v>
       </c>
-      <c r="BT74" t="n">
+      <c r="BZ74" t="n">
         <v>1</v>
+      </c>
+      <c r="CA74" t="n">
+        <v>-23.17742152958706</v>
       </c>
     </row>
     <row r="75">
@@ -16833,31 +18401,52 @@
         <v>22.99011730205281</v>
       </c>
       <c r="BL75" t="n">
+        <v>20.60295081967209</v>
+      </c>
+      <c r="BM75" t="n">
         <v>2.466666666666667</v>
       </c>
-      <c r="BM75" t="n">
+      <c r="BN75" t="n">
         <v>1.3</v>
       </c>
-      <c r="BN75" t="n">
+      <c r="BO75" t="n">
         <v>2.81</v>
       </c>
-      <c r="BO75" t="n">
+      <c r="BP75" t="n">
         <v>-0.8100000000000005</v>
       </c>
-      <c r="BP75" t="n">
+      <c r="BQ75" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="BQ75" t="n">
+      <c r="BR75" t="n">
         <v>15.07651895473127</v>
       </c>
-      <c r="BR75" t="n">
-        <v>0</v>
-      </c>
       <c r="BS75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT75" t="n">
+        <v>89.76491683731979</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>90</v>
+      </c>
+      <c r="BV75" t="n">
+        <v>65.37124282982819</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>58.89287390029339</v>
+      </c>
+      <c r="BX75" t="n">
+        <v>77.40103825136607</v>
+      </c>
+      <c r="BY75" t="n">
         <v>7.079656953490639</v>
       </c>
-      <c r="BT75" t="n">
+      <c r="BZ75" t="n">
         <v>1</v>
+      </c>
+      <c r="CA75" t="n">
+        <v>-24.3936740074916</v>
       </c>
     </row>
     <row r="76">
@@ -17051,31 +18640,52 @@
         <v>23.05365155131271</v>
       </c>
       <c r="BL76" t="n">
+        <v>25.75216494845359</v>
+      </c>
+      <c r="BM76" t="n">
         <v>2.083333333333333</v>
       </c>
-      <c r="BM76" t="n">
+      <c r="BN76" t="n">
         <v>0.8999999999999998</v>
       </c>
-      <c r="BN76" t="n">
+      <c r="BO76" t="n">
         <v>3.19</v>
       </c>
-      <c r="BO76" t="n">
+      <c r="BP76" t="n">
         <v>-1.609999999999999</v>
       </c>
-      <c r="BP76" t="n">
+      <c r="BQ76" t="n">
         <v>0.7899999999999991</v>
       </c>
-      <c r="BQ76" t="n">
+      <c r="BR76" t="n">
         <v>14.83015313935685</v>
       </c>
-      <c r="BR76" t="n">
-        <v>0</v>
-      </c>
       <c r="BS76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT76" t="n">
+        <v>91.83009188361433</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV76" t="n">
+        <v>62.02409708737883</v>
+      </c>
+      <c r="BW76" t="n">
+        <v>61.98119331742252</v>
+      </c>
+      <c r="BX76" t="n">
+        <v>62.14309278350512</v>
+      </c>
+      <c r="BY76" t="n">
         <v>8.726448802390834</v>
       </c>
-      <c r="BT76" t="n">
+      <c r="BZ76" t="n">
         <v>2</v>
+      </c>
+      <c r="CA76" t="n">
+        <v>-29.8059947962355</v>
       </c>
     </row>
     <row r="77">
@@ -17269,31 +18879,52 @@
         <v>22.17264285714295</v>
       </c>
       <c r="BL77" t="n">
+        <v>18.26397759103642</v>
+      </c>
+      <c r="BM77" t="n">
         <v>6.3</v>
       </c>
-      <c r="BM77" t="n">
+      <c r="BN77" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN77" t="n">
+      <c r="BO77" t="n">
         <v>2.399999999999999</v>
       </c>
-      <c r="BO77" t="n">
+      <c r="BP77" t="n">
         <v>-1.9</v>
       </c>
-      <c r="BP77" t="n">
+      <c r="BQ77" t="n">
         <v>0.7899999999999991</v>
       </c>
-      <c r="BQ77" t="n">
+      <c r="BR77" t="n">
         <v>14.99357251908402</v>
       </c>
-      <c r="BR77" t="n">
-        <v>0</v>
-      </c>
       <c r="BS77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT77" t="n">
+        <v>93.22192366412229</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV77" t="n">
+        <v>82.36095360824758</v>
+      </c>
+      <c r="BW77" t="n">
+        <v>77.11519047619048</v>
+      </c>
+      <c r="BX77" t="n">
+        <v>88.51235294117637</v>
+      </c>
+      <c r="BY77" t="n">
         <v>5.37891459431812</v>
       </c>
-      <c r="BT77" t="n">
+      <c r="BZ77" t="n">
         <v>2</v>
+      </c>
+      <c r="CA77" t="n">
+        <v>-10.8609700558747</v>
       </c>
     </row>
     <row r="78">
@@ -17487,31 +19118,52 @@
         <v>24.80323600973245</v>
       </c>
       <c r="BL78" t="n">
+        <v>19.84191304347827</v>
+      </c>
+      <c r="BM78" t="n">
         <v>4.05</v>
       </c>
-      <c r="BM78" t="n">
+      <c r="BN78" t="n">
         <v>0.7099999999999991</v>
       </c>
-      <c r="BN78" t="n">
+      <c r="BO78" t="n">
         <v>4.899999999999999</v>
       </c>
-      <c r="BO78" t="n">
+      <c r="BP78" t="n">
         <v>-1.81</v>
       </c>
-      <c r="BP78" t="n">
+      <c r="BQ78" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BQ78" t="n">
+      <c r="BR78" t="n">
         <v>14.8750917431193</v>
       </c>
-      <c r="BR78" t="n">
-        <v>0</v>
-      </c>
       <c r="BS78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT78" t="n">
+        <v>91.96282874617761</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>40</v>
+      </c>
+      <c r="BV78" t="n">
+        <v>68.96903311258271</v>
+      </c>
+      <c r="BW78" t="n">
+        <v>60.4492214111924</v>
+      </c>
+      <c r="BX78" t="n">
+        <v>79.11243478260876</v>
+      </c>
+      <c r="BY78" t="n">
         <v>7.659199647609279</v>
       </c>
-      <c r="BT78" t="n">
+      <c r="BZ78" t="n">
         <v>2</v>
+      </c>
+      <c r="CA78" t="n">
+        <v>-22.9937956335949</v>
       </c>
     </row>
     <row r="79">
@@ -17705,31 +19357,52 @@
         <v>25.44364457831328</v>
       </c>
       <c r="BL79" t="n">
+        <v>20.4601404494382</v>
+      </c>
+      <c r="BM79" t="n">
         <v>2.283333333333333</v>
       </c>
-      <c r="BM79" t="n">
+      <c r="BN79" t="n">
         <v>2.109999999999999</v>
       </c>
-      <c r="BN79" t="n">
+      <c r="BO79" t="n">
         <v>5.000000000000002</v>
       </c>
-      <c r="BO79" t="n">
+      <c r="BP79" t="n">
         <v>-2.699999999999999</v>
       </c>
-      <c r="BP79" t="n">
+      <c r="BQ79" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BQ79" t="n">
+      <c r="BR79" t="n">
         <v>14.60911392405069</v>
       </c>
-      <c r="BR79" t="n">
-        <v>0</v>
-      </c>
       <c r="BS79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT79" t="n">
+        <v>91.7654641350212</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>114</v>
+      </c>
+      <c r="BV79" t="n">
+        <v>65.93093158660821</v>
+      </c>
+      <c r="BW79" t="n">
+        <v>51.4643975903616</v>
+      </c>
+      <c r="BX79" t="n">
+        <v>79.41789325842694</v>
+      </c>
+      <c r="BY79" t="n">
         <v>8.249110238977091</v>
       </c>
-      <c r="BT79" t="n">
+      <c r="BZ79" t="n">
         <v>3</v>
+      </c>
+      <c r="CA79" t="n">
+        <v>-25.83453254841299</v>
       </c>
     </row>
     <row r="80">
@@ -17923,31 +19596,52 @@
         <v>22.10938666666671</v>
       </c>
       <c r="BL80" t="n">
+        <v>18.91474885844746</v>
+      </c>
+      <c r="BM80" t="n">
         <v>7.083333333333333</v>
       </c>
-      <c r="BM80" t="n">
+      <c r="BN80" t="n">
         <v>2.09</v>
       </c>
-      <c r="BN80" t="n">
+      <c r="BO80" t="n">
         <v>3.600000000000001</v>
       </c>
-      <c r="BO80" t="n">
+      <c r="BP80" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP80" t="n">
+      <c r="BQ80" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BQ80" t="n">
+      <c r="BR80" t="n">
         <v>15.18161921708187</v>
       </c>
-      <c r="BR80" t="n">
-        <v>0</v>
-      </c>
       <c r="BS80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT80" t="n">
+        <v>93.10948398576554</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>36</v>
+      </c>
+      <c r="BV80" t="n">
+        <v>78.92224283305238</v>
+      </c>
+      <c r="BW80" t="n">
+        <v>74.6602933333333</v>
+      </c>
+      <c r="BX80" t="n">
+        <v>86.22817351598168</v>
+      </c>
+      <c r="BY80" t="n">
         <v>5.749493767741145</v>
       </c>
-      <c r="BT80" t="n">
+      <c r="BZ80" t="n">
         <v>3</v>
+      </c>
+      <c r="CA80" t="n">
+        <v>-14.18724115271316</v>
       </c>
     </row>
     <row r="81">
@@ -18141,31 +19835,52 @@
         <v>26.60918635170614</v>
       </c>
       <c r="BL81" t="n">
+        <v>23.71078571428573</v>
+      </c>
+      <c r="BM81" t="n">
         <v>3.55</v>
       </c>
-      <c r="BM81" t="n">
+      <c r="BN81" t="n">
         <v>0.3899999999999988</v>
       </c>
-      <c r="BN81" t="n">
+      <c r="BO81" t="n">
         <v>5.310000000000002</v>
       </c>
-      <c r="BO81" t="n">
+      <c r="BP81" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP81" t="n">
+      <c r="BQ81" t="n">
         <v>5</v>
       </c>
-      <c r="BQ81" t="n">
+      <c r="BR81" t="n">
         <v>15.37581250000001</v>
       </c>
-      <c r="BR81" t="n">
+      <c r="BS81" t="n">
         <v>0.15</v>
       </c>
-      <c r="BS81" t="n">
+      <c r="BT81" t="n">
+        <v>92.0977812499999</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>87</v>
+      </c>
+      <c r="BV81" t="n">
+        <v>67.50454545454554</v>
+      </c>
+      <c r="BW81" t="n">
+        <v>60.0071128608926</v>
+      </c>
+      <c r="BX81" t="n">
+        <v>77.67992857142863</v>
+      </c>
+      <c r="BY81" t="n">
         <v>9.998611742424405</v>
       </c>
-      <c r="BT81" t="n">
+      <c r="BZ81" t="n">
         <v>4</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>-24.59323579545436</v>
       </c>
     </row>
     <row r="82">
@@ -18359,31 +20074,52 @@
         <v>26.50462264150942</v>
       </c>
       <c r="BL82" t="n">
+        <v>25.13741935483873</v>
+      </c>
+      <c r="BM82" t="n">
         <v>3.8</v>
       </c>
-      <c r="BM82" t="n">
+      <c r="BN82" t="n">
         <v>0.7000000000000011</v>
       </c>
-      <c r="BN82" t="n">
+      <c r="BO82" t="n">
         <v>3.609999999999999</v>
       </c>
-      <c r="BO82" t="n">
+      <c r="BP82" t="n">
         <v>-1.81</v>
       </c>
-      <c r="BP82" t="n">
+      <c r="BQ82" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="BQ82" t="n">
+      <c r="BR82" t="n">
         <v>16.02784194528884</v>
       </c>
-      <c r="BR82" t="n">
+      <c r="BS82" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="BS82" t="n">
+      <c r="BT82" t="n">
+        <v>93.64527355623098</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>138</v>
+      </c>
+      <c r="BV82" t="n">
+        <v>69.30765306122471</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>61.04396226415091</v>
+      </c>
+      <c r="BX82" t="n">
+        <v>75.56211469534055</v>
+      </c>
+      <c r="BY82" t="n">
         <v>9.69199478940514</v>
       </c>
-      <c r="BT82" t="n">
+      <c r="BZ82" t="n">
         <v>5</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>-24.33762049500626</v>
       </c>
     </row>
     <row r="83">
@@ -18577,31 +20313,52 @@
         <v>18.3051129943503</v>
       </c>
       <c r="BL83" t="n">
+        <v>17.28862745098039</v>
+      </c>
+      <c r="BM83" t="n">
         <v>0.85</v>
       </c>
-      <c r="BM83" t="n">
+      <c r="BN83" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="BN83" t="n">
+      <c r="BO83" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="BO83" t="n">
+      <c r="BP83" t="n">
         <v>-0.9000000000000004</v>
       </c>
-      <c r="BP83" t="n">
+      <c r="BQ83" t="n">
         <v>-5.300000000000001</v>
       </c>
-      <c r="BQ83" t="n">
+      <c r="BR83" t="n">
         <v>15.10945038167943</v>
       </c>
-      <c r="BR83" t="n">
-        <v>0</v>
-      </c>
       <c r="BS83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT83" t="n">
+        <v>94.39541984732799</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV83" t="n">
+        <v>91.58432394366221</v>
+      </c>
+      <c r="BW83" t="n">
+        <v>89.78457627118644</v>
+      </c>
+      <c r="BX83" t="n">
+        <v>93.37176470588227</v>
+      </c>
+      <c r="BY83" t="n">
         <v>2.682732716912218</v>
       </c>
-      <c r="BT83" t="n">
+      <c r="BZ83" t="n">
         <v>5</v>
+      </c>
+      <c r="CA83" t="n">
+        <v>-2.811095903665773</v>
       </c>
     </row>
     <row r="84">
@@ -18795,31 +20552,52 @@
         <v>16.88752969121143</v>
       </c>
       <c r="BL84" t="n">
-        <v>0</v>
+        <v>15.61136490250697</v>
       </c>
       <c r="BM84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN84" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BN84" t="n">
+      <c r="BO84" t="n">
         <v>2.109999999999999</v>
       </c>
-      <c r="BO84" t="n">
+      <c r="BP84" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP84" t="n">
+      <c r="BQ84" t="n">
         <v>-7.5</v>
       </c>
-      <c r="BQ84" t="n">
+      <c r="BR84" t="n">
         <v>14.68940458015272</v>
       </c>
-      <c r="BR84" t="n">
-        <v>0</v>
-      </c>
       <c r="BS84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT84" t="n">
+        <v>94.25732824427485</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV84" t="n">
+        <v>94.18617458279859</v>
+      </c>
+      <c r="BW84" t="n">
+        <v>93.7738004750594</v>
+      </c>
+      <c r="BX84" t="n">
+        <v>94.67089136490237</v>
+      </c>
+      <c r="BY84" t="n">
         <v>1.608965124597026</v>
       </c>
-      <c r="BT84" t="n">
+      <c r="BZ84" t="n">
         <v>5</v>
+      </c>
+      <c r="CA84" t="n">
+        <v>-0.07115366147625934</v>
       </c>
     </row>
     <row r="85">
@@ -19013,31 +20791,52 @@
         <v>16.99751807228917</v>
       </c>
       <c r="BL85" t="n">
+        <v>18.87961111111112</v>
+      </c>
+      <c r="BM85" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="BM85" t="n">
+      <c r="BN85" t="n">
         <v>1.6</v>
       </c>
-      <c r="BN85" t="n">
+      <c r="BO85" t="n">
         <v>1.41</v>
       </c>
-      <c r="BO85" t="n">
+      <c r="BP85" t="n">
         <v>-3.4</v>
       </c>
-      <c r="BP85" t="n">
+      <c r="BQ85" t="n">
         <v>-3.210000000000001</v>
       </c>
-      <c r="BQ85" t="n">
+      <c r="BR85" t="n">
         <v>14.65550989345513</v>
       </c>
-      <c r="BR85" t="n">
-        <v>0</v>
-      </c>
       <c r="BS85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT85" t="n">
+        <v>92.41869101978725</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>44</v>
+      </c>
+      <c r="BV85" t="n">
+        <v>74.6148966408268</v>
+      </c>
+      <c r="BW85" t="n">
+        <v>68.87619277108442</v>
+      </c>
+      <c r="BX85" t="n">
+        <v>81.17888888888898</v>
+      </c>
+      <c r="BY85" t="n">
         <v>3.211970726699958</v>
       </c>
-      <c r="BT85" t="n">
+      <c r="BZ85" t="n">
         <v>5</v>
+      </c>
+      <c r="CA85" t="n">
+        <v>-17.80379437896045</v>
       </c>
     </row>
     <row r="86">
@@ -19231,31 +21030,52 @@
         <v>19.40785714285718</v>
       </c>
       <c r="BL86" t="n">
+        <v>16.73083333333335</v>
+      </c>
+      <c r="BM86" t="n">
         <v>2</v>
       </c>
-      <c r="BM86" t="n">
+      <c r="BN86" t="n">
         <v>2.109999999999999</v>
       </c>
-      <c r="BN86" t="n">
+      <c r="BO86" t="n">
         <v>3.000000000000002</v>
       </c>
-      <c r="BO86" t="n">
+      <c r="BP86" t="n">
         <v>-3.31</v>
       </c>
-      <c r="BP86" t="n">
+      <c r="BQ86" t="n">
         <v>-3.109999999999999</v>
       </c>
-      <c r="BQ86" t="n">
+      <c r="BR86" t="n">
         <v>15.0632917316693</v>
       </c>
-      <c r="BR86" t="n">
-        <v>0</v>
-      </c>
       <c r="BS86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT86" t="n">
+        <v>90.57302652106104</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>116</v>
+      </c>
+      <c r="BV86" t="n">
+        <v>70.45788189987142</v>
+      </c>
+      <c r="BW86" t="n">
+        <v>63.59638095238111</v>
+      </c>
+      <c r="BX86" t="n">
+        <v>78.43502777777788</v>
+      </c>
+      <c r="BY86" t="n">
         <v>3.105129320962375</v>
       </c>
-      <c r="BT86" t="n">
+      <c r="BZ86" t="n">
         <v>5</v>
+      </c>
+      <c r="CA86" t="n">
+        <v>-20.11514462118961</v>
       </c>
     </row>
     <row r="87">
@@ -19449,31 +21269,52 @@
         <v>19.63854415274468</v>
       </c>
       <c r="BL87" t="n">
+        <v>19.90523676880224</v>
+      </c>
+      <c r="BM87" t="n">
         <v>3.983333333333333</v>
       </c>
-      <c r="BM87" t="n">
+      <c r="BN87" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="BN87" t="n">
+      <c r="BO87" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO87" t="n">
+      <c r="BP87" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP87" t="n">
+      <c r="BQ87" t="n">
         <v>-1.800000000000001</v>
       </c>
-      <c r="BQ87" t="n">
+      <c r="BR87" t="n">
         <v>15.49665653495441</v>
       </c>
-      <c r="BR87" t="n">
-        <v>0</v>
-      </c>
       <c r="BS87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT87" t="n">
+        <v>93.19156534954411</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>38</v>
+      </c>
+      <c r="BV87" t="n">
+        <v>72.43525096525117</v>
+      </c>
+      <c r="BW87" t="n">
+        <v>68.64988066825782</v>
+      </c>
+      <c r="BX87" t="n">
+        <v>76.81919220055723</v>
+      </c>
+      <c r="BY87" t="n">
         <v>4.259495331197551</v>
       </c>
-      <c r="BT87" t="n">
+      <c r="BZ87" t="n">
         <v>5</v>
+      </c>
+      <c r="CA87" t="n">
+        <v>-20.75631438429293</v>
       </c>
     </row>
     <row r="88">
@@ -19667,31 +21508,52 @@
         <v>23.34957142857149</v>
       </c>
       <c r="BL88" t="n">
+        <v>21.11721448467969</v>
+      </c>
+      <c r="BM88" t="n">
         <v>2.433333333333333</v>
       </c>
-      <c r="BM88" t="n">
+      <c r="BN88" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BN88" t="n">
+      <c r="BO88" t="n">
         <v>4.809999999999999</v>
       </c>
-      <c r="BO88" t="n">
+      <c r="BP88" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP88" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR88" t="n">
         <v>14.75094368340947</v>
       </c>
-      <c r="BR88" t="n">
-        <v>0</v>
-      </c>
       <c r="BS88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT88" t="n">
+        <v>92.14003044140047</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>52</v>
+      </c>
+      <c r="BV88" t="n">
+        <v>66.37965295629805</v>
+      </c>
+      <c r="BW88" t="n">
+        <v>58.30214285714302</v>
+      </c>
+      <c r="BX88" t="n">
+        <v>75.81022284122578</v>
+      </c>
+      <c r="BY88" t="n">
         <v>7.567192563377308</v>
       </c>
-      <c r="BT88" t="n">
+      <c r="BZ88" t="n">
         <v>5</v>
+      </c>
+      <c r="CA88" t="n">
+        <v>-25.76037748510242</v>
       </c>
     </row>
     <row r="89">
@@ -19885,31 +21747,52 @@
         <v>24.92190930787598</v>
       </c>
       <c r="BL89" t="n">
+        <v>21.94913888888888</v>
+      </c>
+      <c r="BM89" t="n">
         <v>1.7</v>
       </c>
-      <c r="BM89" t="n">
+      <c r="BN89" t="n">
         <v>2</v>
       </c>
-      <c r="BN89" t="n">
+      <c r="BO89" t="n">
         <v>1.599999999999998</v>
       </c>
-      <c r="BO89" t="n">
+      <c r="BP89" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP89" t="n">
+      <c r="BQ89" t="n">
         <v>2.890000000000001</v>
       </c>
-      <c r="BQ89" t="n">
+      <c r="BR89" t="n">
         <v>17.91022796352591</v>
       </c>
-      <c r="BR89" t="n">
+      <c r="BS89" t="n">
         <v>0.2333333333333333</v>
       </c>
-      <c r="BS89" t="n">
+      <c r="BT89" t="n">
+        <v>93.54857142857128</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>98</v>
+      </c>
+      <c r="BV89" t="n">
+        <v>64.47065552699222</v>
+      </c>
+      <c r="BW89" t="n">
+        <v>55.10085918854432</v>
+      </c>
+      <c r="BX89" t="n">
+        <v>75.3486111111113</v>
+      </c>
+      <c r="BY89" t="n">
         <v>5.631378720278807</v>
       </c>
-      <c r="BT89" t="n">
+      <c r="BZ89" t="n">
         <v>5</v>
+      </c>
+      <c r="CA89" t="n">
+        <v>-29.07791590157906</v>
       </c>
     </row>
     <row r="90">
@@ -20103,31 +21986,52 @@
         <v>24.0467933491687</v>
       </c>
       <c r="BL90" t="n">
+        <v>21.45214484679667</v>
+      </c>
+      <c r="BM90" t="n">
         <v>2.783333333333333</v>
       </c>
-      <c r="BM90" t="n">
+      <c r="BN90" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="BN90" t="n">
+      <c r="BO90" t="n">
         <v>4.199999999999999</v>
       </c>
-      <c r="BO90" t="n">
+      <c r="BP90" t="n">
         <v>-2</v>
       </c>
-      <c r="BP90" t="n">
+      <c r="BQ90" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BQ90" t="n">
+      <c r="BR90" t="n">
         <v>14.79261068702291</v>
       </c>
-      <c r="BR90" t="n">
-        <v>0</v>
-      </c>
       <c r="BS90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT90" t="n">
+        <v>92.16757251908436</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>52</v>
+      </c>
+      <c r="BV90" t="n">
+        <v>62.5774582798457</v>
+      </c>
+      <c r="BW90" t="n">
+        <v>49.48346793349189</v>
+      </c>
+      <c r="BX90" t="n">
+        <v>77.91947075208921</v>
+      </c>
+      <c r="BY90" t="n">
         <v>8.055040147380261</v>
       </c>
-      <c r="BT90" t="n">
+      <c r="BZ90" t="n">
         <v>6</v>
+      </c>
+      <c r="CA90" t="n">
+        <v>-29.59011423923866</v>
       </c>
     </row>
     <row r="91">
@@ -20321,31 +22225,52 @@
         <v>23.72504761904771</v>
       </c>
       <c r="BL91" t="n">
+        <v>20.88452777777778</v>
+      </c>
+      <c r="BM91" t="n">
         <v>1.55</v>
       </c>
-      <c r="BM91" t="n">
+      <c r="BN91" t="n">
         <v>2.210000000000001</v>
       </c>
-      <c r="BN91" t="n">
+      <c r="BO91" t="n">
         <v>5.5</v>
       </c>
-      <c r="BO91" t="n">
+      <c r="BP91" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP91" t="n">
+      <c r="BQ91" t="n">
         <v>0.7899999999999991</v>
       </c>
-      <c r="BQ91" t="n">
+      <c r="BR91" t="n">
         <v>15.1227</v>
       </c>
-      <c r="BR91" t="n">
+      <c r="BS91" t="n">
         <v>0.5166666666666667</v>
       </c>
-      <c r="BS91" t="n">
+      <c r="BT91" t="n">
+        <v>81.5536</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>38</v>
+      </c>
+      <c r="BV91" t="n">
+        <v>60.934544287548</v>
+      </c>
+      <c r="BW91" t="n">
+        <v>48.72488095238119</v>
+      </c>
+      <c r="BX91" t="n">
+        <v>75.15041666666683</v>
+      </c>
+      <c r="BY91" t="n">
         <v>7.287004749679157</v>
       </c>
-      <c r="BT91" t="n">
+      <c r="BZ91" t="n">
         <v>6</v>
+      </c>
+      <c r="CA91" t="n">
+        <v>-20.619055712452</v>
       </c>
     </row>
     <row r="92">
@@ -20539,31 +22464,52 @@
         <v>19.51078384798102</v>
       </c>
       <c r="BL92" t="n">
+        <v>18.37414035087718</v>
+      </c>
+      <c r="BM92" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BM92" t="n">
+      <c r="BN92" t="n">
         <v>1.855</v>
       </c>
-      <c r="BN92" t="n">
+      <c r="BO92" t="n">
         <v>1</v>
       </c>
-      <c r="BO92" t="n">
+      <c r="BP92" t="n">
         <v>-1.31</v>
       </c>
-      <c r="BP92" t="n">
+      <c r="BQ92" t="n">
         <v>-3.609999999999999</v>
       </c>
-      <c r="BQ92" t="n">
+      <c r="BR92" t="n">
         <v>15.47691842900304</v>
       </c>
-      <c r="BR92" t="n">
-        <v>0</v>
-      </c>
       <c r="BS92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT92" t="n">
+        <v>93.58525679758296</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV92" t="n">
+        <v>61.93304964539022</v>
+      </c>
+      <c r="BW92" t="n">
+        <v>56.05793349168661</v>
+      </c>
+      <c r="BX92" t="n">
+        <v>70.59894736842121</v>
+      </c>
+      <c r="BY92" t="n">
         <v>3.574542563904881</v>
       </c>
-      <c r="BT92" t="n">
+      <c r="BZ92" t="n">
         <v>6</v>
+      </c>
+      <c r="CA92" t="n">
+        <v>-31.65220715219274</v>
       </c>
     </row>
     <row r="93">
@@ -20757,31 +22703,52 @@
         <v>16.55294258373208</v>
       </c>
       <c r="BL93" t="n">
-        <v>0</v>
+        <v>15.2244632768362</v>
       </c>
       <c r="BM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN93" t="n">
         <v>1.5</v>
       </c>
-      <c r="BN93" t="n">
+      <c r="BO93" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO93" t="n">
+      <c r="BP93" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP93" t="n">
+      <c r="BQ93" t="n">
         <v>-5</v>
       </c>
-      <c r="BQ93" t="n">
+      <c r="BR93" t="n">
         <v>14.92264705882353</v>
       </c>
-      <c r="BR93" t="n">
-        <v>0</v>
-      </c>
       <c r="BS93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT93" t="n">
+        <v>94.68411764705888</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV93" t="n">
+        <v>93.27548638132313</v>
+      </c>
+      <c r="BW93" t="n">
+        <v>92.49392344497637</v>
+      </c>
+      <c r="BX93" t="n">
+        <v>94.20180790960443</v>
+      </c>
+      <c r="BY93" t="n">
         <v>1.01949301899751</v>
       </c>
-      <c r="BT93" t="n">
+      <c r="BZ93" t="n">
         <v>6</v>
+      </c>
+      <c r="CA93" t="n">
+        <v>-1.40863126573575</v>
       </c>
     </row>
     <row r="94">
@@ -20975,31 +22942,52 @@
         <v>19.68604316546765</v>
       </c>
       <c r="BL94" t="n">
+        <v>20.54194444444444</v>
+      </c>
+      <c r="BM94" t="n">
         <v>3.4</v>
       </c>
-      <c r="BM94" t="n">
+      <c r="BN94" t="n">
         <v>0.2099999999999991</v>
       </c>
-      <c r="BN94" t="n">
+      <c r="BO94" t="n">
         <v>2</v>
       </c>
-      <c r="BO94" t="n">
+      <c r="BP94" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP94" t="n">
+      <c r="BQ94" t="n">
         <v>-2</v>
       </c>
-      <c r="BQ94" t="n">
+      <c r="BR94" t="n">
         <v>14.65166666666667</v>
       </c>
-      <c r="BR94" t="n">
-        <v>0</v>
-      </c>
       <c r="BS94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT94" t="n">
+        <v>91.97048611111101</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>21</v>
+      </c>
+      <c r="BV94" t="n">
+        <v>68.01346590909102</v>
+      </c>
+      <c r="BW94" t="n">
+        <v>62.2867386091128</v>
+      </c>
+      <c r="BX94" t="n">
+        <v>76.29166666666671</v>
+      </c>
+      <c r="BY94" t="n">
         <v>5.379398674242502</v>
       </c>
-      <c r="BT94" t="n">
+      <c r="BZ94" t="n">
         <v>6</v>
+      </c>
+      <c r="CA94" t="n">
+        <v>-23.95702020201999</v>
       </c>
     </row>
     <row r="95">
@@ -21193,31 +23181,52 @@
         <v>22.90731382978728</v>
       </c>
       <c r="BL95" t="n">
+        <v>19.62495726495725</v>
+      </c>
+      <c r="BM95" t="n">
         <v>2.766666666666667</v>
       </c>
-      <c r="BM95" t="n">
+      <c r="BN95" t="n">
         <v>2.300000000000001</v>
       </c>
-      <c r="BN95" t="n">
+      <c r="BO95" t="n">
         <v>1.5</v>
       </c>
-      <c r="BO95" t="n">
+      <c r="BP95" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP95" t="n">
+      <c r="BQ95" t="n">
         <v>-0.6099999999999994</v>
       </c>
-      <c r="BQ95" t="n">
+      <c r="BR95" t="n">
         <v>14.6318320610687</v>
       </c>
-      <c r="BR95" t="n">
-        <v>0</v>
-      </c>
       <c r="BS95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT95" t="n">
+        <v>93.02980916030552</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV95" t="n">
+        <v>68.14092286501356</v>
+      </c>
+      <c r="BW95" t="n">
+        <v>57.34132978723429</v>
+      </c>
+      <c r="BX95" t="n">
+        <v>79.70387464387473</v>
+      </c>
+      <c r="BY95" t="n">
         <v>6.685826341135297</v>
       </c>
-      <c r="BT95" t="n">
+      <c r="BZ95" t="n">
         <v>6</v>
+      </c>
+      <c r="CA95" t="n">
+        <v>-24.88888629529195</v>
       </c>
     </row>
     <row r="96">
@@ -21411,31 +23420,52 @@
         <v>23.5128095238096</v>
       </c>
       <c r="BL96" t="n">
+        <v>20.63122388059702</v>
+      </c>
+      <c r="BM96" t="n">
         <v>2.6</v>
       </c>
-      <c r="BM96" t="n">
+      <c r="BN96" t="n">
         <v>0.7099999999999991</v>
       </c>
-      <c r="BN96" t="n">
+      <c r="BO96" t="n">
         <v>4.31</v>
       </c>
-      <c r="BO96" t="n">
+      <c r="BP96" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP96" t="n">
+      <c r="BQ96" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="BQ96" t="n">
+      <c r="BR96" t="n">
         <v>14.81598387096776</v>
       </c>
-      <c r="BR96" t="n">
+      <c r="BS96" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="BS96" t="n">
+      <c r="BT96" t="n">
+        <v>91.73208064516159</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV96" t="n">
+        <v>63.48310344827568</v>
+      </c>
+      <c r="BW96" t="n">
+        <v>52.60057142857166</v>
+      </c>
+      <c r="BX96" t="n">
+        <v>77.08065671641795</v>
+      </c>
+      <c r="BY96" t="n">
         <v>7.412981646273726</v>
       </c>
-      <c r="BT96" t="n">
+      <c r="BZ96" t="n">
         <v>6</v>
+      </c>
+      <c r="CA96" t="n">
+        <v>-28.2489771968859</v>
       </c>
     </row>
     <row r="97">
@@ -21629,31 +23659,52 @@
         <v>23.13824207492799</v>
       </c>
       <c r="BL97" t="n">
+        <v>20.03042071197411</v>
+      </c>
+      <c r="BM97" t="n">
         <v>2.166666666666667</v>
       </c>
-      <c r="BM97" t="n">
+      <c r="BN97" t="n">
         <v>2.100000000000001</v>
       </c>
-      <c r="BN97" t="n">
+      <c r="BO97" t="n">
         <v>4.31</v>
       </c>
-      <c r="BO97" t="n">
+      <c r="BP97" t="n">
         <v>-2</v>
       </c>
-      <c r="BP97" t="n">
+      <c r="BQ97" t="n">
         <v>1</v>
       </c>
-      <c r="BQ97" t="n">
+      <c r="BR97" t="n">
         <v>14.73121555915725</v>
       </c>
-      <c r="BR97" t="n">
-        <v>0</v>
-      </c>
       <c r="BS97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT97" t="n">
+        <v>91.20982171799051</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV97" t="n">
+        <v>62.72696646341464</v>
+      </c>
+      <c r="BW97" t="n">
+        <v>50.72458213256495</v>
+      </c>
+      <c r="BX97" t="n">
+        <v>76.20537216828491</v>
+      </c>
+      <c r="BY97" t="n">
         <v>6.943128953038006</v>
       </c>
-      <c r="BT97" t="n">
+      <c r="BZ97" t="n">
         <v>6</v>
+      </c>
+      <c r="CA97" t="n">
+        <v>-28.48285525457587</v>
       </c>
     </row>
     <row r="98">
@@ -21847,31 +23898,52 @@
         <v>24.4811594202899</v>
       </c>
       <c r="BL98" t="n">
+        <v>20.68752577319586</v>
+      </c>
+      <c r="BM98" t="n">
         <v>1.25</v>
       </c>
-      <c r="BM98" t="n">
+      <c r="BN98" t="n">
         <v>2.109999999999999</v>
       </c>
-      <c r="BN98" t="n">
+      <c r="BO98" t="n">
         <v>4.09</v>
       </c>
-      <c r="BO98" t="n">
+      <c r="BP98" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP98" t="n">
+      <c r="BQ98" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BQ98" t="n">
+      <c r="BR98" t="n">
         <v>15.13837539432182</v>
       </c>
-      <c r="BR98" t="n">
+      <c r="BS98" t="n">
         <v>0.1</v>
       </c>
-      <c r="BS98" t="n">
+      <c r="BT98" t="n">
+        <v>91.98074132492138</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>58</v>
+      </c>
+      <c r="BV98" t="n">
+        <v>59.11259842519704</v>
+      </c>
+      <c r="BW98" t="n">
+        <v>46.88489855072473</v>
+      </c>
+      <c r="BX98" t="n">
+        <v>73.57903780068743</v>
+      </c>
+      <c r="BY98" t="n">
         <v>7.601104920638939</v>
       </c>
-      <c r="BT98" t="n">
+      <c r="BZ98" t="n">
         <v>6</v>
+      </c>
+      <c r="CA98" t="n">
+        <v>-32.86814289972435</v>
       </c>
     </row>
     <row r="99">
@@ -22065,31 +24137,52 @@
         <v>28.58892857142868</v>
       </c>
       <c r="BL99" t="n">
+        <v>22.17170391061453</v>
+      </c>
+      <c r="BM99" t="n">
         <v>3.45</v>
       </c>
-      <c r="BM99" t="n">
+      <c r="BN99" t="n">
         <v>2</v>
       </c>
-      <c r="BN99" t="n">
+      <c r="BO99" t="n">
         <v>6.900000000000002</v>
       </c>
-      <c r="BO99" t="n">
+      <c r="BP99" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP99" t="n">
+      <c r="BQ99" t="n">
         <v>5.789999999999999</v>
       </c>
-      <c r="BQ99" t="n">
+      <c r="BR99" t="n">
         <v>15.99350230414745</v>
       </c>
-      <c r="BR99" t="n">
+      <c r="BS99" t="n">
         <v>0.45</v>
       </c>
-      <c r="BS99" t="n">
+      <c r="BT99" t="n">
+        <v>91.89757296466988</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>23</v>
+      </c>
+      <c r="BV99" t="n">
+        <v>64.63655083655061</v>
+      </c>
+      <c r="BW99" t="n">
+        <v>54.37171428571461</v>
+      </c>
+      <c r="BX99" t="n">
+        <v>76.66360335195543</v>
+      </c>
+      <c r="BY99" t="n">
         <v>9.63768173703664</v>
       </c>
-      <c r="BT99" t="n">
+      <c r="BZ99" t="n">
         <v>7</v>
+      </c>
+      <c r="CA99" t="n">
+        <v>-27.26102212811927</v>
       </c>
     </row>
     <row r="100">
@@ -22283,31 +24376,52 @@
         <v>27.2535391923992</v>
       </c>
       <c r="BL100" t="n">
+        <v>22.94637119113576</v>
+      </c>
+      <c r="BM100" t="n">
         <v>3.616666666666667</v>
       </c>
-      <c r="BM100" t="n">
+      <c r="BN100" t="n">
         <v>1.09</v>
       </c>
-      <c r="BN100" t="n">
+      <c r="BO100" t="n">
         <v>4.390000000000001</v>
       </c>
-      <c r="BO100" t="n">
+      <c r="BP100" t="n">
         <v>-1.699999999999999</v>
       </c>
-      <c r="BP100" t="n">
+      <c r="BQ100" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="BQ100" t="n">
+      <c r="BR100" t="n">
         <v>15.52727129337545</v>
       </c>
-      <c r="BR100" t="n">
+      <c r="BS100" t="n">
         <v>0.45</v>
       </c>
-      <c r="BS100" t="n">
+      <c r="BT100" t="n">
+        <v>92.90742902208207</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV100" t="n">
+        <v>63.37377720870656</v>
+      </c>
+      <c r="BW100" t="n">
+        <v>51.39985748218547</v>
+      </c>
+      <c r="BX100" t="n">
+        <v>77.30656509695302</v>
+      </c>
+      <c r="BY100" t="n">
         <v>9.730846504319908</v>
       </c>
-      <c r="BT100" t="n">
+      <c r="BZ100" t="n">
         <v>8</v>
+      </c>
+      <c r="CA100" t="n">
+        <v>-29.53365181337551</v>
       </c>
     </row>
     <row r="101">
@@ -22501,31 +24615,52 @@
         <v>22.8357635467981</v>
       </c>
       <c r="BL101" t="n">
+        <v>18.16042613636362</v>
+      </c>
+      <c r="BM101" t="n">
         <v>5.083333333333333</v>
       </c>
-      <c r="BM101" t="n">
+      <c r="BN101" t="n">
         <v>1.4</v>
       </c>
-      <c r="BN101" t="n">
+      <c r="BO101" t="n">
         <v>1.59</v>
       </c>
-      <c r="BO101" t="n">
+      <c r="BP101" t="n">
         <v>-1.9</v>
       </c>
-      <c r="BP101" t="n">
+      <c r="BQ101" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="BQ101" t="n">
+      <c r="BR101" t="n">
         <v>17.25250759878419</v>
       </c>
-      <c r="BR101" t="n">
-        <v>0</v>
-      </c>
       <c r="BS101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT101" t="n">
+        <v>95.23015197568425</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV101" t="n">
+        <v>87.24886393659223</v>
+      </c>
+      <c r="BW101" t="n">
+        <v>80.35327586206895</v>
+      </c>
+      <c r="BX101" t="n">
+        <v>95.21775568181823</v>
+      </c>
+      <c r="BY101" t="n">
         <v>3.412736786949104</v>
       </c>
-      <c r="BT101" t="n">
+      <c r="BZ101" t="n">
         <v>8</v>
+      </c>
+      <c r="CA101" t="n">
+        <v>-7.981288039092021</v>
       </c>
     </row>
     <row r="102">
@@ -22719,31 +24854,52 @@
         <v>16.85178571428573</v>
       </c>
       <c r="BL102" t="n">
-        <v>0</v>
+        <v>16.55224376731304</v>
       </c>
       <c r="BM102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN102" t="n">
         <v>0.4000000000000004</v>
       </c>
-      <c r="BN102" t="n">
+      <c r="BO102" t="n">
         <v>1.289999999999999</v>
       </c>
-      <c r="BO102" t="n">
+      <c r="BP102" t="n">
         <v>-1.4</v>
       </c>
-      <c r="BP102" t="n">
+      <c r="BQ102" t="n">
         <v>-6.609999999999999</v>
       </c>
-      <c r="BQ102" t="n">
+      <c r="BR102" t="n">
         <v>14.72544049459039</v>
       </c>
-      <c r="BR102" t="n">
-        <v>0</v>
-      </c>
       <c r="BS102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT102" t="n">
+        <v>95.92321483771194</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV102" t="n">
+        <v>95.09556410256391</v>
+      </c>
+      <c r="BW102" t="n">
+        <v>94.94238095238074</v>
+      </c>
+      <c r="BX102" t="n">
+        <v>95.27238227146805</v>
+      </c>
+      <c r="BY102" t="n">
         <v>1.985867197717413</v>
       </c>
-      <c r="BT102" t="n">
+      <c r="BZ102" t="n">
         <v>8</v>
+      </c>
+      <c r="CA102" t="n">
+        <v>-0.8276507351480262</v>
       </c>
     </row>
     <row r="103">
@@ -22937,31 +25093,52 @@
         <v>20.25783333333337</v>
       </c>
       <c r="BL103" t="n">
+        <v>18.01845070422535</v>
+      </c>
+      <c r="BM103" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="BM103" t="n">
+      <c r="BN103" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="BN103" t="n">
+      <c r="BO103" t="n">
         <v>2</v>
       </c>
-      <c r="BO103" t="n">
+      <c r="BP103" t="n">
         <v>-1.609999999999999</v>
       </c>
-      <c r="BP103" t="n">
+      <c r="BQ103" t="n">
         <v>-4.210000000000001</v>
       </c>
-      <c r="BQ103" t="n">
+      <c r="BR103" t="n">
         <v>16.63948328267475</v>
       </c>
-      <c r="BR103" t="n">
-        <v>0</v>
-      </c>
       <c r="BS103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT103" t="n">
+        <v>95.25785714285682</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV103" t="n">
+        <v>92.63483204134387</v>
+      </c>
+      <c r="BW103" t="n">
+        <v>91.33864285714301</v>
+      </c>
+      <c r="BX103" t="n">
+        <v>94.1569577464788</v>
+      </c>
+      <c r="BY103" t="n">
         <v>2.591963745749105</v>
       </c>
-      <c r="BT103" t="n">
+      <c r="BZ103" t="n">
         <v>8</v>
+      </c>
+      <c r="CA103" t="n">
+        <v>-2.623025101512951</v>
       </c>
     </row>
     <row r="104">
@@ -23155,31 +25332,52 @@
         <v>26.04677261613704</v>
       </c>
       <c r="BL104" t="n">
+        <v>21.51412742382273</v>
+      </c>
+      <c r="BM104" t="n">
         <v>2.466666666666667</v>
       </c>
-      <c r="BM104" t="n">
+      <c r="BN104" t="n">
         <v>2.899999999999999</v>
       </c>
-      <c r="BN104" t="n">
+      <c r="BO104" t="n">
         <v>6.5</v>
       </c>
-      <c r="BO104" t="n">
+      <c r="BP104" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP104" t="n">
+      <c r="BQ104" t="n">
         <v>3.789999999999999</v>
       </c>
-      <c r="BQ104" t="n">
+      <c r="BR104" t="n">
         <v>14.76024518388796</v>
       </c>
-      <c r="BR104" t="n">
+      <c r="BS104" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="BS104" t="n">
+      <c r="BT104" t="n">
+        <v>91.98492119089333</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>65</v>
+      </c>
+      <c r="BV104" t="n">
+        <v>62.94154746423906</v>
+      </c>
+      <c r="BW104" t="n">
+        <v>51.73948655256751</v>
+      </c>
+      <c r="BX104" t="n">
+        <v>75.5988642659281</v>
+      </c>
+      <c r="BY104" t="n">
         <v>9.158779523524391</v>
       </c>
-      <c r="BT104" t="n">
+      <c r="BZ104" t="n">
         <v>9</v>
+      </c>
+      <c r="CA104" t="n">
+        <v>-29.04337372665427</v>
       </c>
     </row>
     <row r="105">
@@ -23373,31 +25571,52 @@
         <v>25.30721153846163</v>
       </c>
       <c r="BL105" t="n">
+        <v>21.83993749999999</v>
+      </c>
+      <c r="BM105" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="BM105" t="n">
+      <c r="BN105" t="n">
         <v>2.19</v>
       </c>
-      <c r="BN105" t="n">
+      <c r="BO105" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="BO105" t="n">
+      <c r="BP105" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP105" t="n">
+      <c r="BQ105" t="n">
         <v>2.390000000000001</v>
       </c>
-      <c r="BQ105" t="n">
+      <c r="BR105" t="n">
         <v>14.96061728395067</v>
       </c>
-      <c r="BR105" t="n">
+      <c r="BS105" t="n">
         <v>0.2166666666666667</v>
       </c>
-      <c r="BS105" t="n">
+      <c r="BT105" t="n">
+        <v>91.96641975308657</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV105" t="n">
+        <v>66.21512925170043</v>
+      </c>
+      <c r="BW105" t="n">
+        <v>56.92305288461566</v>
+      </c>
+      <c r="BX105" t="n">
+        <v>78.27568749999995</v>
+      </c>
+      <c r="BY105" t="n">
         <v>8.835695641219502</v>
       </c>
-      <c r="BT105" t="n">
+      <c r="BZ105" t="n">
         <v>10</v>
+      </c>
+      <c r="CA105" t="n">
+        <v>-25.75129050138614</v>
       </c>
     </row>
     <row r="106">
@@ -23591,31 +25810,52 @@
         <v>25.33236842105271</v>
       </c>
       <c r="BL106" t="n">
+        <v>21.27181528662421</v>
+      </c>
+      <c r="BM106" t="n">
         <v>6.25</v>
       </c>
-      <c r="BM106" t="n">
+      <c r="BN106" t="n">
         <v>2.01</v>
       </c>
-      <c r="BN106" t="n">
+      <c r="BO106" t="n">
         <v>5</v>
       </c>
-      <c r="BO106" t="n">
+      <c r="BP106" t="n">
         <v>-1.9</v>
       </c>
-      <c r="BP106" t="n">
+      <c r="BQ106" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BQ106" t="n">
+      <c r="BR106" t="n">
         <v>16.4235682819383</v>
       </c>
-      <c r="BR106" t="n">
+      <c r="BS106" t="n">
         <v>0.9833333333333333</v>
       </c>
-      <c r="BS106" t="n">
+      <c r="BT106" t="n">
+        <v>83.09154185022017</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>12</v>
+      </c>
+      <c r="BV106" t="n">
+        <v>71.58013679890556</v>
+      </c>
+      <c r="BW106" t="n">
+        <v>65.3263157894738</v>
+      </c>
+      <c r="BX106" t="n">
+        <v>79.8881210191083</v>
+      </c>
+      <c r="BY106" t="n">
         <v>7.164229255681526</v>
       </c>
-      <c r="BT106" t="n">
+      <c r="BZ106" t="n">
         <v>10</v>
+      </c>
+      <c r="CA106" t="n">
+        <v>-11.51140505131461</v>
       </c>
     </row>
     <row r="107">
@@ -23809,31 +26049,52 @@
         <v>25.0046744791668</v>
       </c>
       <c r="BL107" t="n">
+        <v>20.21207815275321</v>
+      </c>
+      <c r="BM107" t="n">
         <v>10.9</v>
       </c>
-      <c r="BM107" t="n">
+      <c r="BN107" t="n">
         <v>5.710000000000001</v>
       </c>
-      <c r="BN107" t="n">
+      <c r="BO107" t="n">
         <v>6.699999999999999</v>
       </c>
-      <c r="BO107" t="n">
+      <c r="BP107" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP107" t="n">
+      <c r="BQ107" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BQ107" t="n">
+      <c r="BR107" t="n">
         <v>15.01069607843139</v>
       </c>
-      <c r="BR107" t="n">
+      <c r="BS107" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="BS107" t="n">
+      <c r="BT107" t="n">
+        <v>82.46373529411755</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>152</v>
+      </c>
+      <c r="BV107" t="n">
+        <v>60.68656132430318</v>
+      </c>
+      <c r="BW107" t="n">
+        <v>46.29430989583358</v>
+      </c>
+      <c r="BX107" t="n">
+        <v>80.31618117229129</v>
+      </c>
+      <c r="BY107" t="n">
         <v>7.961305426459472</v>
       </c>
-      <c r="BT107" t="n">
+      <c r="BZ107" t="n">
         <v>10</v>
+      </c>
+      <c r="CA107" t="n">
+        <v>-21.77717396981438</v>
       </c>
     </row>
     <row r="108">
@@ -24027,31 +26288,52 @@
         <v>26.50768674698805</v>
       </c>
       <c r="BL108" t="n">
+        <v>21.61957746478875</v>
+      </c>
+      <c r="BM108" t="n">
         <v>3.083333333333333</v>
       </c>
-      <c r="BM108" t="n">
+      <c r="BN108" t="n">
         <v>3.290000000000001</v>
       </c>
-      <c r="BN108" t="n">
+      <c r="BO108" t="n">
         <v>5.289999999999999</v>
       </c>
-      <c r="BO108" t="n">
+      <c r="BP108" t="n">
         <v>-2.9</v>
       </c>
-      <c r="BP108" t="n">
+      <c r="BQ108" t="n">
         <v>3.699999999999999</v>
       </c>
-      <c r="BQ108" t="n">
+      <c r="BR108" t="n">
         <v>15.24408814589671</v>
       </c>
-      <c r="BR108" t="n">
+      <c r="BS108" t="n">
         <v>0.35</v>
       </c>
-      <c r="BS108" t="n">
+      <c r="BT108" t="n">
+        <v>94.62715805471171</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>32</v>
+      </c>
+      <c r="BV108" t="n">
+        <v>64.93085825747696</v>
+      </c>
+      <c r="BW108" t="n">
+        <v>52.47771084337373</v>
+      </c>
+      <c r="BX108" t="n">
+        <v>79.48191549295781</v>
+      </c>
+      <c r="BY108" t="n">
         <v>9.004611463986331</v>
       </c>
-      <c r="BT108" t="n">
+      <c r="BZ108" t="n">
         <v>11</v>
+      </c>
+      <c r="CA108" t="n">
+        <v>-29.69629979723476</v>
       </c>
     </row>
     <row r="109">
@@ -24245,31 +26527,52 @@
         <v>28.34603325415688</v>
       </c>
       <c r="BL109" t="n">
+        <v>23.38500000000003</v>
+      </c>
+      <c r="BM109" t="n">
         <v>9.516666666666667</v>
       </c>
-      <c r="BM109" t="n">
+      <c r="BN109" t="n">
         <v>2.109999999999999</v>
       </c>
-      <c r="BN109" t="n">
+      <c r="BO109" t="n">
         <v>5</v>
       </c>
-      <c r="BO109" t="n">
+      <c r="BP109" t="n">
         <v>-1.609999999999999</v>
       </c>
-      <c r="BP109" t="n">
+      <c r="BQ109" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="BQ109" t="n">
+      <c r="BR109" t="n">
         <v>18.58722306525047</v>
       </c>
-      <c r="BR109" t="n">
+      <c r="BS109" t="n">
         <v>0.05</v>
       </c>
-      <c r="BS109" t="n">
+      <c r="BT109" t="n">
+        <v>95.42024279210965</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV109" t="n">
+        <v>81.56641025641053</v>
+      </c>
+      <c r="BW109" t="n">
+        <v>77.09529691211385</v>
+      </c>
+      <c r="BX109" t="n">
+        <v>86.75577777777765</v>
+      </c>
+      <c r="BY109" t="n">
         <v>7.466212832185512</v>
       </c>
-      <c r="BT109" t="n">
+      <c r="BZ109" t="n">
         <v>11</v>
+      </c>
+      <c r="CA109" t="n">
+        <v>-13.85383253569911</v>
       </c>
     </row>
     <row r="110">
@@ -24463,31 +26766,52 @@
         <v>27.18179856115118</v>
       </c>
       <c r="BL110" t="n">
+        <v>23.56771186440681</v>
+      </c>
+      <c r="BM110" t="n">
         <v>5.466666666666667</v>
       </c>
-      <c r="BM110" t="n">
+      <c r="BN110" t="n">
         <v>2.399999999999999</v>
       </c>
-      <c r="BN110" t="n">
+      <c r="BO110" t="n">
         <v>2.289999999999999</v>
       </c>
-      <c r="BO110" t="n">
+      <c r="BP110" t="n">
         <v>-0.6099999999999994</v>
       </c>
-      <c r="BP110" t="n">
+      <c r="BQ110" t="n">
         <v>4.5</v>
       </c>
-      <c r="BQ110" t="n">
+      <c r="BR110" t="n">
         <v>20.07905918057673</v>
       </c>
-      <c r="BR110" t="n">
-        <v>0</v>
-      </c>
       <c r="BS110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT110" t="n">
+        <v>97.07657056145713</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>49</v>
+      </c>
+      <c r="BV110" t="n">
+        <v>87.23642857142885</v>
+      </c>
+      <c r="BW110" t="n">
+        <v>82.95155875299756</v>
+      </c>
+      <c r="BX110" t="n">
+        <v>92.27443502824849</v>
+      </c>
+      <c r="BY110" t="n">
         <v>5.439759001241516</v>
       </c>
-      <c r="BT110" t="n">
+      <c r="BZ110" t="n">
         <v>11</v>
+      </c>
+      <c r="CA110" t="n">
+        <v>-9.840141990028286</v>
       </c>
     </row>
     <row r="111">
@@ -24681,31 +27005,52 @@
         <v>22.30378571428576</v>
       </c>
       <c r="BL111" t="n">
+        <v>23.55708333333336</v>
+      </c>
+      <c r="BM111" t="n">
         <v>2.583333333333333</v>
       </c>
-      <c r="BM111" t="n">
+      <c r="BN111" t="n">
         <v>0.6099999999999994</v>
       </c>
-      <c r="BN111" t="n">
+      <c r="BO111" t="n">
         <v>1.300000000000001</v>
       </c>
-      <c r="BO111" t="n">
+      <c r="BP111" t="n">
         <v>-0.8100000000000005</v>
       </c>
-      <c r="BP111" t="n">
+      <c r="BQ111" t="n">
         <v>4.390000000000001</v>
       </c>
-      <c r="BQ111" t="n">
+      <c r="BR111" t="n">
         <v>14.83969558599695</v>
       </c>
-      <c r="BR111" t="n">
-        <v>0</v>
-      </c>
       <c r="BS111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT111" t="n">
+        <v>97.89106544901081</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>49</v>
+      </c>
+      <c r="BV111" t="n">
+        <v>91.04569961489108</v>
+      </c>
+      <c r="BW111" t="n">
+        <v>88.24369047619047</v>
+      </c>
+      <c r="BX111" t="n">
+        <v>94.28594444444443</v>
+      </c>
+      <c r="BY111" t="n">
         <v>8.035195299754148</v>
       </c>
-      <c r="BT111" t="n">
+      <c r="BZ111" t="n">
         <v>12</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>-6.845365834119733</v>
       </c>
     </row>
     <row r="112">
@@ -24899,31 +27244,52 @@
         <v>21.32147971360384</v>
       </c>
       <c r="BL112" t="n">
+        <v>19.28869444444444</v>
+      </c>
+      <c r="BM112" t="n">
         <v>5.416666666666667</v>
       </c>
-      <c r="BM112" t="n">
+      <c r="BN112" t="n">
         <v>3.5</v>
       </c>
-      <c r="BN112" t="n">
+      <c r="BO112" t="n">
         <v>3.300000000000001</v>
       </c>
-      <c r="BO112" t="n">
+      <c r="BP112" t="n">
         <v>-3.81</v>
       </c>
-      <c r="BP112" t="n">
+      <c r="BQ112" t="n">
         <v>-1</v>
       </c>
-      <c r="BQ112" t="n">
+      <c r="BR112" t="n">
         <v>12.53423547400621</v>
       </c>
-      <c r="BR112" t="n">
-        <v>0</v>
-      </c>
       <c r="BS112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT112" t="n">
+        <v>97.2668042813455</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>24</v>
+      </c>
+      <c r="BV112" t="n">
+        <v>72.79208226221084</v>
+      </c>
+      <c r="BW112" t="n">
+        <v>67.47933174224359</v>
+      </c>
+      <c r="BX112" t="n">
+        <v>78.96083333333347</v>
+      </c>
+      <c r="BY112" t="n">
         <v>7.848965040132713</v>
       </c>
-      <c r="BT112" t="n">
+      <c r="BZ112" t="n">
         <v>12</v>
+      </c>
+      <c r="CA112" t="n">
+        <v>-24.47472201913466</v>
       </c>
     </row>
     <row r="113">
@@ -25117,31 +27483,52 @@
         <v>24.10535885167472</v>
       </c>
       <c r="BL113" t="n">
+        <v>20.40476323119779</v>
+      </c>
+      <c r="BM113" t="n">
         <v>1.066666666666667</v>
       </c>
-      <c r="BM113" t="n">
+      <c r="BN113" t="n">
         <v>3.800000000000001</v>
       </c>
-      <c r="BN113" t="n">
+      <c r="BO113" t="n">
         <v>4.109999999999999</v>
       </c>
-      <c r="BO113" t="n">
+      <c r="BP113" t="n">
         <v>-5.5</v>
       </c>
-      <c r="BP113" t="n">
+      <c r="BQ113" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="BQ113" t="n">
+      <c r="BR113" t="n">
         <v>12.46992412746591</v>
       </c>
-      <c r="BR113" t="n">
-        <v>0</v>
-      </c>
       <c r="BS113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT113" t="n">
+        <v>96.56423368740549</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV113" t="n">
+        <v>62.55729381443287</v>
+      </c>
+      <c r="BW113" t="n">
+        <v>53.08473684210546</v>
+      </c>
+      <c r="BX113" t="n">
+        <v>73.54440111420644</v>
+      </c>
+      <c r="BY113" t="n">
         <v>9.921261439544486</v>
       </c>
-      <c r="BT113" t="n">
+      <c r="BZ113" t="n">
         <v>13</v>
+      </c>
+      <c r="CA113" t="n">
+        <v>-34.00693987297262</v>
       </c>
     </row>
     <row r="114">
@@ -25335,31 +27722,52 @@
         <v>25.89549878345509</v>
       </c>
       <c r="BL114" t="n">
+        <v>21.71078431372549</v>
+      </c>
+      <c r="BM114" t="n">
         <v>5.716666666666667</v>
       </c>
-      <c r="BM114" t="n">
+      <c r="BN114" t="n">
         <v>5</v>
       </c>
-      <c r="BN114" t="n">
+      <c r="BO114" t="n">
         <v>4</v>
       </c>
-      <c r="BO114" t="n">
+      <c r="BP114" t="n">
         <v>-6.31</v>
       </c>
-      <c r="BP114" t="n">
+      <c r="BQ114" t="n">
         <v>3.390000000000001</v>
       </c>
-      <c r="BQ114" t="n">
+      <c r="BR114" t="n">
         <v>18.03187596899236</v>
       </c>
-      <c r="BR114" t="n">
+      <c r="BS114" t="n">
         <v>1.033333333333333</v>
       </c>
-      <c r="BS114" t="n">
+      <c r="BT114" t="n">
+        <v>95.47077519379887</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV114" t="n">
+        <v>70.69559322033876</v>
+      </c>
+      <c r="BW114" t="n">
+        <v>59.94815085158173</v>
+      </c>
+      <c r="BX114" t="n">
+        <v>83.06700280112035</v>
+      </c>
+      <c r="BY114" t="n">
         <v>5.912452583810872</v>
       </c>
-      <c r="BT114" t="n">
+      <c r="BZ114" t="n">
         <v>13</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>-24.77518197346011</v>
       </c>
     </row>
     <row r="115">
@@ -25553,31 +27961,52 @@
         <v>19.78183770883058</v>
       </c>
       <c r="BL115" t="n">
-        <v>0</v>
+        <v>18.08238888888888</v>
       </c>
       <c r="BM115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN115" t="n">
         <v>0.1900000000000013</v>
       </c>
-      <c r="BN115" t="n">
+      <c r="BO115" t="n">
         <v>1</v>
       </c>
-      <c r="BO115" t="n">
+      <c r="BP115" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="BP115" t="n">
+      <c r="BQ115" t="n">
         <v>-5.210000000000001</v>
       </c>
-      <c r="BQ115" t="n">
+      <c r="BR115" t="n">
         <v>17.43822458270122</v>
       </c>
-      <c r="BR115" t="n">
-        <v>0</v>
-      </c>
       <c r="BS115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT115" t="n">
+        <v>99.72332321699642</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV115" t="n">
+        <v>98.39244215938315</v>
+      </c>
+      <c r="BW115" t="n">
+        <v>97.78928400954686</v>
+      </c>
+      <c r="BX115" t="n">
+        <v>99.09419444444435</v>
+      </c>
+      <c r="BY115" t="n">
         <v>1.556955365885038</v>
       </c>
-      <c r="BT115" t="n">
+      <c r="BZ115" t="n">
         <v>13</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>-1.330881057613269</v>
       </c>
     </row>
     <row r="116">
@@ -25771,31 +28200,52 @@
         <v>23.85954545454554</v>
       </c>
       <c r="BL116" t="n">
+        <v>18.48304709141276</v>
+      </c>
+      <c r="BM116" t="n">
         <v>0.5333333333333333</v>
       </c>
-      <c r="BM116" t="n">
+      <c r="BN116" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="BN116" t="n">
+      <c r="BO116" t="n">
         <v>5.810000000000002</v>
       </c>
-      <c r="BO116" t="n">
+      <c r="BP116" t="n">
         <v>-1.81</v>
       </c>
-      <c r="BP116" t="n">
+      <c r="BQ116" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BQ116" t="n">
+      <c r="BR116" t="n">
         <v>15.31123100303955</v>
       </c>
-      <c r="BR116" t="n">
-        <v>0</v>
-      </c>
       <c r="BS116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT116" t="n">
+        <v>98.46691489361751</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV116" t="n">
+        <v>94.46807197943465</v>
+      </c>
+      <c r="BW116" t="n">
+        <v>90.45942583732061</v>
+      </c>
+      <c r="BX116" t="n">
+        <v>99.10919667590031</v>
+      </c>
+      <c r="BY116" t="n">
         <v>6.056224009814034</v>
       </c>
-      <c r="BT116" t="n">
+      <c r="BZ116" t="n">
         <v>13</v>
+      </c>
+      <c r="CA116" t="n">
+        <v>-3.998842914182859</v>
       </c>
     </row>
     <row r="117">
@@ -25989,31 +28439,52 @@
         <v>25.39355329949246</v>
       </c>
       <c r="BL117" t="n">
+        <v>19.79748587570622</v>
+      </c>
+      <c r="BM117" t="n">
         <v>8.6</v>
       </c>
-      <c r="BM117" t="n">
+      <c r="BN117" t="n">
         <v>2.19</v>
       </c>
-      <c r="BN117" t="n">
+      <c r="BO117" t="n">
         <v>5.199999999999999</v>
       </c>
-      <c r="BO117" t="n">
+      <c r="BP117" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP117" t="n">
+      <c r="BQ117" t="n">
         <v>3</v>
       </c>
-      <c r="BQ117" t="n">
+      <c r="BR117" t="n">
         <v>14.29365296803657</v>
       </c>
-      <c r="BR117" t="n">
+      <c r="BS117" t="n">
         <v>0.45</v>
       </c>
-      <c r="BS117" t="n">
+      <c r="BT117" t="n">
+        <v>95.67572298325786</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV117" t="n">
+        <v>79.14250334672046</v>
+      </c>
+      <c r="BW117" t="n">
+        <v>69.97817258883246</v>
+      </c>
+      <c r="BX117" t="n">
+        <v>89.35014124293777</v>
+      </c>
+      <c r="BY117" t="n">
         <v>8.450885184573986</v>
       </c>
-      <c r="BT117" t="n">
+      <c r="BZ117" t="n">
         <v>14</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>-16.5332196365374</v>
       </c>
     </row>
     <row r="118">
@@ -26207,31 +28678,52 @@
         <v>26.53458536585376</v>
       </c>
       <c r="BL118" t="n">
+        <v>20.15343750000001</v>
+      </c>
+      <c r="BM118" t="n">
         <v>9.233333333333333</v>
       </c>
-      <c r="BM118" t="n">
+      <c r="BN118" t="n">
         <v>3.800000000000001</v>
       </c>
-      <c r="BN118" t="n">
+      <c r="BO118" t="n">
         <v>5.810000000000002</v>
       </c>
-      <c r="BO118" t="n">
+      <c r="BP118" t="n">
         <v>-5.5</v>
       </c>
-      <c r="BP118" t="n">
+      <c r="BQ118" t="n">
         <v>4.199999999999999</v>
       </c>
-      <c r="BQ118" t="n">
+      <c r="BR118" t="n">
         <v>13.57371340523886</v>
       </c>
-      <c r="BR118" t="n">
+      <c r="BS118" t="n">
         <v>0.5</v>
       </c>
-      <c r="BS118" t="n">
+      <c r="BT118" t="n">
+        <v>95.18508474576285</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>41</v>
+      </c>
+      <c r="BV118" t="n">
+        <v>75.33408779149529</v>
+      </c>
+      <c r="BW118" t="n">
+        <v>68.25890243902434</v>
+      </c>
+      <c r="BX118" t="n">
+        <v>84.38278124999991</v>
+      </c>
+      <c r="BY118" t="n">
         <v>10.15864599119473</v>
       </c>
-      <c r="BT118" t="n">
+      <c r="BZ118" t="n">
         <v>15</v>
+      </c>
+      <c r="CA118" t="n">
+        <v>-19.85099695426756</v>
       </c>
     </row>
     <row r="119">
@@ -26425,31 +28917,52 @@
         <v>25.30711217183781</v>
       </c>
       <c r="BL119" t="n">
+        <v>19.04235127478753</v>
+      </c>
+      <c r="BM119" t="n">
         <v>7.966666666666667</v>
       </c>
-      <c r="BM119" t="n">
+      <c r="BN119" t="n">
         <v>3.5</v>
       </c>
-      <c r="BN119" t="n">
+      <c r="BO119" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="BO119" t="n">
+      <c r="BP119" t="n">
         <v>-5</v>
       </c>
-      <c r="BP119" t="n">
+      <c r="BQ119" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BQ119" t="n">
+      <c r="BR119" t="n">
         <v>14.52522796352586</v>
       </c>
-      <c r="BR119" t="n">
-        <v>0</v>
-      </c>
       <c r="BS119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT119" t="n">
+        <v>97.05013677811603</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV119" t="n">
+        <v>80.60297016861242</v>
+      </c>
+      <c r="BW119" t="n">
+        <v>71.79615751789977</v>
+      </c>
+      <c r="BX119" t="n">
+        <v>91.03963172804514</v>
+      </c>
+      <c r="BY119" t="n">
         <v>7.911659196007328</v>
       </c>
-      <c r="BT119" t="n">
+      <c r="BZ119" t="n">
         <v>15</v>
+      </c>
+      <c r="CA119" t="n">
+        <v>-16.44716660950361</v>
       </c>
     </row>
     <row r="120">
@@ -26643,31 +29156,52 @@
         <v>24.77080246913583</v>
       </c>
       <c r="BL120" t="n">
+        <v>20.16124637681159</v>
+      </c>
+      <c r="BM120" t="n">
         <v>2.3</v>
       </c>
-      <c r="BM120" t="n">
+      <c r="BN120" t="n">
         <v>1.5</v>
       </c>
-      <c r="BN120" t="n">
+      <c r="BO120" t="n">
         <v>2.699999999999999</v>
       </c>
-      <c r="BO120" t="n">
+      <c r="BP120" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP120" t="n">
+      <c r="BQ120" t="n">
         <v>1.390000000000001</v>
       </c>
-      <c r="BQ120" t="n">
+      <c r="BR120" t="n">
         <v>16.36433846153851</v>
       </c>
-      <c r="BR120" t="n">
+      <c r="BS120" t="n">
         <v>0.3666666666666666</v>
       </c>
-      <c r="BS120" t="n">
+      <c r="BT120" t="n">
+        <v>97.85167692307752</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV120" t="n">
+        <v>73.31729041916148</v>
+      </c>
+      <c r="BW120" t="n">
+        <v>54.89311728395082</v>
+      </c>
+      <c r="BX120" t="n">
+        <v>90.62542028985501</v>
+      </c>
+      <c r="BY120" t="n">
         <v>6.023640580377798</v>
       </c>
-      <c r="BT120" t="n">
+      <c r="BZ120" t="n">
         <v>15</v>
+      </c>
+      <c r="CA120" t="n">
+        <v>-24.53438650391604</v>
       </c>
     </row>
     <row r="121">
@@ -26861,31 +29395,52 @@
         <v>19.65590909090914</v>
       </c>
       <c r="BL121" t="n">
-        <v>0</v>
+        <v>17.04183333333336</v>
       </c>
       <c r="BM121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN121" t="n">
         <v>0.4100000000000001</v>
       </c>
-      <c r="BN121" t="n">
+      <c r="BO121" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="BO121" t="n">
+      <c r="BP121" t="n">
         <v>-0.6099999999999994</v>
       </c>
-      <c r="BP121" t="n">
+      <c r="BQ121" t="n">
         <v>-1.800000000000001</v>
       </c>
-      <c r="BQ121" t="n">
+      <c r="BR121" t="n">
         <v>16.89820940819427</v>
       </c>
-      <c r="BR121" t="n">
-        <v>0</v>
-      </c>
       <c r="BS121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT121" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV121" t="n">
+        <v>99.48557271557263</v>
+      </c>
+      <c r="BW121" t="n">
+        <v>99.15583732057446</v>
+      </c>
+      <c r="BX121" t="n">
+        <v>99.86958333333395</v>
+      </c>
+      <c r="BY121" t="n">
         <v>1.546372316387572</v>
       </c>
-      <c r="BT121" t="n">
+      <c r="BZ121" t="n">
         <v>15</v>
+      </c>
+      <c r="CA121" t="n">
+        <v>-0.4144272844283705</v>
       </c>
     </row>
     <row r="122">
@@ -27079,31 +29634,52 @@
         <v>25.51043478260865</v>
       </c>
       <c r="BL122" t="n">
+        <v>19.08790780141841</v>
+      </c>
+      <c r="BM122" t="n">
         <v>1.383333333333333</v>
       </c>
-      <c r="BM122" t="n">
+      <c r="BN122" t="n">
         <v>1.4</v>
       </c>
-      <c r="BN122" t="n">
+      <c r="BO122" t="n">
         <v>4.789999999999999</v>
       </c>
-      <c r="BO122" t="n">
+      <c r="BP122" t="n">
         <v>-1.699999999999999</v>
       </c>
-      <c r="BP122" t="n">
+      <c r="BQ122" t="n">
         <v>1.789999999999999</v>
       </c>
-      <c r="BQ122" t="n">
+      <c r="BR122" t="n">
         <v>15.23899305555555</v>
       </c>
-      <c r="BR122" t="n">
-        <v>0</v>
-      </c>
       <c r="BS122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT122" t="n">
+        <v>99.3579861111121</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>110</v>
+      </c>
+      <c r="BV122" t="n">
+        <v>92.95352144469518</v>
+      </c>
+      <c r="BW122" t="n">
+        <v>84.97521739130437</v>
+      </c>
+      <c r="BX122" t="n">
+        <v>97.50851063829768</v>
+      </c>
+      <c r="BY122" t="n">
         <v>6.183061120516717</v>
       </c>
-      <c r="BT122" t="n">
+      <c r="BZ122" t="n">
         <v>15</v>
+      </c>
+      <c r="CA122" t="n">
+        <v>-6.404464666416914</v>
       </c>
     </row>
     <row r="123">
@@ -27297,31 +29873,52 @@
         <v>27.88882113821141</v>
       </c>
       <c r="BL123" t="n">
+        <v>20.00193939393938</v>
+      </c>
+      <c r="BM123" t="n">
         <v>3.2</v>
       </c>
-      <c r="BM123" t="n">
+      <c r="BN123" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="BN123" t="n">
+      <c r="BO123" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="BO123" t="n">
+      <c r="BP123" t="n">
         <v>-1</v>
       </c>
-      <c r="BP123" t="n">
+      <c r="BQ123" t="n">
         <v>3.5</v>
       </c>
-      <c r="BQ123" t="n">
+      <c r="BR123" t="n">
         <v>15.72961123110154</v>
       </c>
-      <c r="BR123" t="n">
-        <v>0</v>
-      </c>
       <c r="BS123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT123" t="n">
+        <v>99.85965442764662</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>86</v>
+      </c>
+      <c r="BV123" t="n">
+        <v>90.17676521739145</v>
+      </c>
+      <c r="BW123" t="n">
+        <v>82.77313008130076</v>
+      </c>
+      <c r="BX123" t="n">
+        <v>95.68772727272713</v>
+      </c>
+      <c r="BY123" t="n">
         <v>7.633501812376799</v>
       </c>
-      <c r="BT123" t="n">
+      <c r="BZ123" t="n">
         <v>15</v>
+      </c>
+      <c r="CA123" t="n">
+        <v>-9.682889210255169</v>
       </c>
     </row>
     <row r="124">
@@ -27515,31 +30112,52 @@
         <v>25.745</v>
       </c>
       <c r="BL124" t="n">
+        <v>19.70114503816793</v>
+      </c>
+      <c r="BM124" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="BM124" t="n">
+      <c r="BN124" t="n">
         <v>2.609999999999999</v>
       </c>
-      <c r="BN124" t="n">
+      <c r="BO124" t="n">
         <v>0.08999999999999986</v>
       </c>
-      <c r="BO124" t="n">
+      <c r="BP124" t="n">
         <v>-1.699999999999999</v>
       </c>
-      <c r="BP124" t="n">
+      <c r="BQ124" t="n">
         <v>5</v>
       </c>
-      <c r="BQ124" t="n">
+      <c r="BR124" t="n">
         <v>22.6174193548387</v>
       </c>
-      <c r="BR124" t="n">
-        <v>0</v>
-      </c>
       <c r="BS124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT124" t="n">
+        <v>99.89999999999992</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV124" t="n">
+        <v>97.28829629629622</v>
+      </c>
+      <c r="BW124" t="n">
+        <v>94.29499999999999</v>
+      </c>
+      <c r="BX124" t="n">
+        <v>97.37969465648848</v>
+      </c>
+      <c r="BY124" t="n">
         <v>-2.73719713261649</v>
       </c>
-      <c r="BT124" t="n">
+      <c r="BZ124" t="n">
         <v>15</v>
+      </c>
+      <c r="CA124" t="n">
+        <v>-2.611703703703697</v>
       </c>
     </row>
     <row r="125">
@@ -27733,31 +30351,52 @@
         <v>26.12674757281569</v>
       </c>
       <c r="BL125" t="n">
-        <v>0</v>
+        <v>25.84260273972602</v>
       </c>
       <c r="BM125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN125" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="BN125" t="n">
+      <c r="BO125" t="n">
         <v>0.8000000000000007</v>
       </c>
-      <c r="BO125" t="n">
+      <c r="BP125" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="BP125" t="n">
+      <c r="BQ125" t="n">
         <v>2.100000000000001</v>
       </c>
-      <c r="BQ125" t="n">
+      <c r="BR125" t="n">
         <v>23.94048558421877</v>
       </c>
-      <c r="BR125" t="n">
-        <v>0</v>
-      </c>
       <c r="BS125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT125" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>36</v>
+      </c>
+      <c r="BV125" t="n">
+        <v>98.8832063492067</v>
+      </c>
+      <c r="BW125" t="n">
+        <v>98.77628640776723</v>
+      </c>
+      <c r="BX125" t="n">
+        <v>99.07388127853858</v>
+      </c>
+      <c r="BY125" t="n">
         <v>2.084514415781435</v>
       </c>
-      <c r="BT125" t="n">
+      <c r="BZ125" t="n">
         <v>15</v>
+      </c>
+      <c r="CA125" t="n">
+        <v>-1.016793650794298</v>
       </c>
     </row>
     <row r="126">
@@ -27951,31 +30590,52 @@
         <v>27.40328571428587</v>
       </c>
       <c r="BL126" t="n">
-        <v>0</v>
+        <v>26.19832402234644</v>
       </c>
       <c r="BM126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN126" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN126" t="n">
+      <c r="BO126" t="n">
         <v>1.189999999999998</v>
       </c>
-      <c r="BO126" t="n">
+      <c r="BP126" t="n">
         <v>6.390000000000001</v>
       </c>
-      <c r="BP126" t="n">
+      <c r="BQ126" t="n">
         <v>5.890000000000001</v>
       </c>
-      <c r="BQ126" t="n">
+      <c r="BR126" t="n">
         <v>22.45294832826758</v>
       </c>
-      <c r="BR126" t="n">
-        <v>0</v>
-      </c>
       <c r="BS126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT126" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV126" t="n">
+        <v>99.17625482625456</v>
+      </c>
+      <c r="BW126" t="n">
+        <v>98.65130952381007</v>
+      </c>
+      <c r="BX126" t="n">
+        <v>99.79075418994471</v>
+      </c>
+      <c r="BY126" t="n">
         <v>4.390397875078786</v>
       </c>
-      <c r="BT126" t="n">
+      <c r="BZ126" t="n">
         <v>15</v>
+      </c>
+      <c r="CA126" t="n">
+        <v>-0.7237451737464511</v>
       </c>
     </row>
     <row r="127">
@@ -28169,31 +30829,52 @@
         <v>22.101028708134</v>
       </c>
       <c r="BL127" t="n">
-        <v>0</v>
+        <v>21.41738888888891</v>
       </c>
       <c r="BM127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN127" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="BN127" t="n">
+      <c r="BO127" t="n">
         <v>2.289999999999999</v>
       </c>
-      <c r="BO127" t="n">
+      <c r="BP127" t="n">
         <v>2</v>
       </c>
-      <c r="BP127" t="n">
+      <c r="BQ127" t="n">
         <v>-1.399999999999999</v>
       </c>
-      <c r="BQ127" t="n">
+      <c r="BR127" t="n">
         <v>17.17452887537995</v>
       </c>
-      <c r="BR127" t="n">
-        <v>0</v>
-      </c>
       <c r="BS127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT127" t="n">
+        <v>99.8653799392107</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV127" t="n">
+        <v>99.74911196911231</v>
+      </c>
+      <c r="BW127" t="n">
+        <v>99.63303827751233</v>
+      </c>
+      <c r="BX127" t="n">
+        <v>99.88430555555618</v>
+      </c>
+      <c r="BY127" t="n">
         <v>4.608341137490218</v>
       </c>
-      <c r="BT127" t="n">
+      <c r="BZ127" t="n">
         <v>15</v>
+      </c>
+      <c r="CA127" t="n">
+        <v>-0.1162679700983915</v>
       </c>
     </row>
     <row r="128">
@@ -28387,31 +31068,52 @@
         <v>25.64727047146411</v>
       </c>
       <c r="BL128" t="n">
+        <v>18.60178674351586</v>
+      </c>
+      <c r="BM128" t="n">
         <v>5.95</v>
       </c>
-      <c r="BM128" t="n">
+      <c r="BN128" t="n">
         <v>3.210000000000001</v>
       </c>
-      <c r="BN128" t="n">
+      <c r="BO128" t="n">
         <v>5.109999999999999</v>
       </c>
-      <c r="BO128" t="n">
+      <c r="BP128" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP128" t="n">
+      <c r="BQ128" t="n">
         <v>2.100000000000001</v>
       </c>
-      <c r="BQ128" t="n">
+      <c r="BR128" t="n">
         <v>14.09819078947371</v>
       </c>
-      <c r="BR128" t="n">
+      <c r="BS128" t="n">
         <v>0.7333333333333333</v>
       </c>
-      <c r="BS128" t="n">
+      <c r="BT128" t="n">
+        <v>89.68555921052641</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>17</v>
+      </c>
+      <c r="BV128" t="n">
+        <v>83.14022696929268</v>
+      </c>
+      <c r="BW128" t="n">
+        <v>71.72297766749377</v>
+      </c>
+      <c r="BX128" t="n">
+        <v>96.4183573487031</v>
+      </c>
+      <c r="BY128" t="n">
         <v>8.285494123744055</v>
       </c>
-      <c r="BT128" t="n">
+      <c r="BZ128" t="n">
         <v>16</v>
+      </c>
+      <c r="CA128" t="n">
+        <v>-6.545332241233723</v>
       </c>
     </row>
     <row r="129">
@@ -28605,31 +31307,52 @@
         <v>23.16539408867</v>
       </c>
       <c r="BL129" t="n">
+        <v>21.68718840579712</v>
+      </c>
+      <c r="BM129" t="n">
         <v>5.9</v>
       </c>
-      <c r="BM129" t="n">
+      <c r="BN129" t="n">
         <v>4.9</v>
       </c>
-      <c r="BN129" t="n">
+      <c r="BO129" t="n">
         <v>4.810000000000002</v>
       </c>
-      <c r="BO129" t="n">
+      <c r="BP129" t="n">
         <v>-5.4</v>
       </c>
-      <c r="BP129" t="n">
+      <c r="BQ129" t="n">
         <v>3</v>
       </c>
-      <c r="BQ129" t="n">
+      <c r="BR129" t="n">
         <v>13.76216088328084</v>
       </c>
-      <c r="BR129" t="n">
+      <c r="BS129" t="n">
         <v>2.1</v>
       </c>
-      <c r="BS129" t="n">
+      <c r="BT129" t="n">
+        <v>87.96135646687719</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>31</v>
+      </c>
+      <c r="BV129" t="n">
+        <v>61.66085333333359</v>
+      </c>
+      <c r="BW129" t="n">
+        <v>60.02581280788183</v>
+      </c>
+      <c r="BX129" t="n">
+        <v>63.54249275362344</v>
+      </c>
+      <c r="BY129" t="n">
         <v>8.715879116719323</v>
       </c>
-      <c r="BT129" t="n">
+      <c r="BZ129" t="n">
         <v>17</v>
+      </c>
+      <c r="CA129" t="n">
+        <v>-26.3005031335436</v>
       </c>
     </row>
     <row r="130">
@@ -28823,31 +31546,52 @@
         <v>27.36198090692137</v>
       </c>
       <c r="BL130" t="n">
+        <v>22.0162824207493</v>
+      </c>
+      <c r="BM130" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="BM130" t="n">
+      <c r="BN130" t="n">
         <v>4.890000000000001</v>
       </c>
-      <c r="BN130" t="n">
+      <c r="BO130" t="n">
         <v>3.690000000000001</v>
       </c>
-      <c r="BO130" t="n">
+      <c r="BP130" t="n">
         <v>-5</v>
       </c>
-      <c r="BP130" t="n">
+      <c r="BQ130" t="n">
         <v>4.5</v>
       </c>
-      <c r="BQ130" t="n">
+      <c r="BR130" t="n">
         <v>16.09761102603373</v>
       </c>
-      <c r="BR130" t="n">
+      <c r="BS130" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="BS130" t="n">
+      <c r="BT130" t="n">
+        <v>98.06094946401322</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>9</v>
+      </c>
+      <c r="BV130" t="n">
+        <v>75.86028758169958</v>
+      </c>
+      <c r="BW130" t="n">
+        <v>70.86715990453457</v>
+      </c>
+      <c r="BX130" t="n">
+        <v>81.87455331412097</v>
+      </c>
+      <c r="BY130" t="n">
         <v>8.837591588345493</v>
       </c>
-      <c r="BT130" t="n">
+      <c r="BZ130" t="n">
         <v>18</v>
+      </c>
+      <c r="CA130" t="n">
+        <v>-22.20066188231364</v>
       </c>
     </row>
     <row r="131">
@@ -29041,31 +31785,52 @@
         <v>23.96697270471473</v>
       </c>
       <c r="BL131" t="n">
+        <v>22.95660493827162</v>
+      </c>
+      <c r="BM131" t="n">
         <v>3.2</v>
       </c>
-      <c r="BM131" t="n">
+      <c r="BN131" t="n">
         <v>3.390000000000001</v>
       </c>
-      <c r="BN131" t="n">
+      <c r="BO131" t="n">
         <v>2.289999999999999</v>
       </c>
-      <c r="BO131" t="n">
+      <c r="BP131" t="n">
         <v>-2</v>
       </c>
-      <c r="BP131" t="n">
+      <c r="BQ131" t="n">
         <v>3.890000000000001</v>
       </c>
-      <c r="BQ131" t="n">
+      <c r="BR131" t="n">
         <v>18.41471124620072</v>
       </c>
-      <c r="BR131" t="n">
-        <v>0</v>
-      </c>
       <c r="BS131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT131" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>40</v>
+      </c>
+      <c r="BV131" t="n">
+        <v>90.35586776859532</v>
+      </c>
+      <c r="BW131" t="n">
+        <v>89.01282878411912</v>
+      </c>
+      <c r="BX131" t="n">
+        <v>91.99191358024682</v>
+      </c>
+      <c r="BY131" t="n">
         <v>5.097726770328286</v>
       </c>
-      <c r="BT131" t="n">
+      <c r="BZ131" t="n">
         <v>18</v>
+      </c>
+      <c r="CA131" t="n">
+        <v>-9.544132231405698</v>
       </c>
     </row>
     <row r="132">
@@ -29259,31 +32024,52 @@
         <v>27.86983333333343</v>
       </c>
       <c r="BL132" t="n">
+        <v>24.37727272727274</v>
+      </c>
+      <c r="BM132" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="BM132" t="n">
+      <c r="BN132" t="n">
         <v>1.190000000000001</v>
       </c>
-      <c r="BN132" t="n">
+      <c r="BO132" t="n">
         <v>6.199999999999999</v>
       </c>
-      <c r="BO132" t="n">
+      <c r="BP132" t="n">
         <v>-3.31</v>
       </c>
-      <c r="BP132" t="n">
+      <c r="BQ132" t="n">
         <v>4.5</v>
       </c>
-      <c r="BQ132" t="n">
+      <c r="BR132" t="n">
         <v>13.18964992389651</v>
       </c>
-      <c r="BR132" t="n">
+      <c r="BS132" t="n">
         <v>1.016666666666667</v>
       </c>
-      <c r="BS132" t="n">
+      <c r="BT132" t="n">
+        <v>96.48624048706327</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BV132" t="n">
+        <v>71.63621052631558</v>
+      </c>
+      <c r="BW132" t="n">
+        <v>59.37500000000011</v>
+      </c>
+      <c r="BX132" t="n">
+        <v>86.71384164222869</v>
+      </c>
+      <c r="BY132" t="n">
         <v>13.10981060241935</v>
       </c>
-      <c r="BT132" t="n">
+      <c r="BZ132" t="n">
         <v>19</v>
+      </c>
+      <c r="CA132" t="n">
+        <v>-24.85002996074769</v>
       </c>
     </row>
     <row r="133">
@@ -29477,31 +32263,52 @@
         <v>27.31248780487817</v>
       </c>
       <c r="BL133" t="n">
+        <v>21.44512465373962</v>
+      </c>
+      <c r="BM133" t="n">
         <v>2.133333333333333</v>
       </c>
-      <c r="BM133" t="n">
+      <c r="BN133" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="BN133" t="n">
+      <c r="BO133" t="n">
         <v>7.189999999999998</v>
       </c>
-      <c r="BO133" t="n">
+      <c r="BP133" t="n">
         <v>-5.699999999999999</v>
       </c>
-      <c r="BP133" t="n">
+      <c r="BQ133" t="n">
         <v>3.699999999999999</v>
       </c>
-      <c r="BQ133" t="n">
+      <c r="BR133" t="n">
         <v>13.30071884984031</v>
       </c>
-      <c r="BR133" t="n">
+      <c r="BS133" t="n">
         <v>0.25</v>
       </c>
-      <c r="BS133" t="n">
+      <c r="BT133" t="n">
+        <v>95.94343450479302</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>37</v>
+      </c>
+      <c r="BV133" t="n">
+        <v>66.36938961038919</v>
+      </c>
+      <c r="BW133" t="n">
+        <v>50.40392682926853</v>
+      </c>
+      <c r="BX133" t="n">
+        <v>84.48174515235458</v>
+      </c>
+      <c r="BY133" t="n">
         <v>11.25877465665329</v>
       </c>
-      <c r="BT133" t="n">
+      <c r="BZ133" t="n">
         <v>20</v>
+      </c>
+      <c r="CA133" t="n">
+        <v>-29.57404489440383</v>
       </c>
     </row>
     <row r="134">
@@ -29695,31 +32502,52 @@
         <v>27.46776190476201</v>
       </c>
       <c r="BL134" t="n">
+        <v>21.79039106145252</v>
+      </c>
+      <c r="BM134" t="n">
         <v>6.65</v>
       </c>
-      <c r="BM134" t="n">
+      <c r="BN134" t="n">
         <v>5.200000000000001</v>
       </c>
-      <c r="BN134" t="n">
+      <c r="BO134" t="n">
         <v>5.109999999999999</v>
       </c>
-      <c r="BO134" t="n">
+      <c r="BP134" t="n">
         <v>-5.81</v>
       </c>
-      <c r="BP134" t="n">
+      <c r="BQ134" t="n">
         <v>4.600000000000001</v>
       </c>
-      <c r="BQ134" t="n">
+      <c r="BR134" t="n">
         <v>15.50953703703703</v>
       </c>
-      <c r="BR134" t="n">
+      <c r="BS134" t="n">
         <v>0.5</v>
       </c>
-      <c r="BS134" t="n">
+      <c r="BT134" t="n">
+        <v>97.34168209876636</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV134" t="n">
+        <v>72.65773778920325</v>
+      </c>
+      <c r="BW134" t="n">
+        <v>64.26438095238085</v>
+      </c>
+      <c r="BX134" t="n">
+        <v>82.50469273743018</v>
+      </c>
+      <c r="BY134" t="n">
         <v>9.34575859278306</v>
       </c>
-      <c r="BT134" t="n">
+      <c r="BZ134" t="n">
         <v>21</v>
+      </c>
+      <c r="CA134" t="n">
+        <v>-24.6839443095631</v>
       </c>
     </row>
   </sheetData>
